--- a/France/3_Comptabilite_Et_Fiscalite/5_Plan_de_Comptes/Plan_De_Comptes.xlsx
+++ b/France/3_Comptabilite_Et_Fiscalite/5_Plan_de_Comptes/Plan_De_Comptes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="952">
   <si>
     <t>COMPTES DE BILAN</t>
   </si>
@@ -15406,10 +15406,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE263"/>
+  <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:S7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15588,40 +15588,28 @@
       <c r="R3" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="S3" s="44" t="e">
-        <f>SUM(S4:S5,S6,S9:S11,S14:S15,S19)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="S3" s="44"/>
       <c r="U3" s="45">
         <v>60</v>
       </c>
       <c r="V3" s="45" t="s">
         <v>684</v>
       </c>
-      <c r="W3" s="44">
-        <f>SUM(W4,W8,W22:W24,W29,W32:W33)</f>
-        <v>0</v>
-      </c>
+      <c r="W3" s="44"/>
       <c r="Y3" s="9">
         <v>70</v>
       </c>
       <c r="Z3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="26">
-        <f>SUM(AA4,AA7:AA9,AA12:AA14,AA17,AA26)</f>
-        <v>0</v>
-      </c>
+      <c r="AA3" s="26"/>
       <c r="AC3" s="9">
         <v>80</v>
       </c>
       <c r="AD3" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="AE3" s="26">
-        <f>SUM(AE4,AE11,AE18)</f>
-        <v>0</v>
-      </c>
+      <c r="AE3" s="26"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
@@ -15658,40 +15646,28 @@
       <c r="R4" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="S4" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="S4" s="27"/>
       <c r="U4" s="6">
         <v>601</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>927</v>
       </c>
-      <c r="W4" s="27">
-        <f>SUM(W5:W7)</f>
-        <v>0</v>
-      </c>
+      <c r="W4" s="27"/>
       <c r="Y4" s="39">
         <v>701</v>
       </c>
       <c r="Z4" s="39" t="s">
         <v>761</v>
       </c>
-      <c r="AA4" s="40">
-        <f>SUM(AA5:AA6)</f>
-        <v>0</v>
-      </c>
+      <c r="AA4" s="40"/>
       <c r="AC4" s="39">
         <v>801</v>
       </c>
       <c r="AD4" s="39" t="s">
         <v>880</v>
       </c>
-      <c r="AE4" s="40">
-        <f>SUM(AE5:AE7,AE10)</f>
-        <v>0</v>
-      </c>
+      <c r="AE4" s="40"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -15728,40 +15704,28 @@
       <c r="R5" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="S5" s="27" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U5" s="22">
-        <v>6011</v>
-      </c>
-      <c r="V5" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="W5" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="22">
-        <v>7011</v>
-      </c>
-      <c r="Z5" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA5" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="22">
-        <v>8011</v>
-      </c>
-      <c r="AD5" s="22" t="s">
-        <v>771</v>
-      </c>
-      <c r="AE5" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="S5" s="27"/>
+      <c r="U5" s="6">
+        <v>602</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="W5" s="27"/>
+      <c r="Y5" s="10">
+        <v>702</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="AA5" s="27"/>
+      <c r="AC5" s="39">
+        <v>802</v>
+      </c>
+      <c r="AD5" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="AE5" s="40"/>
     </row>
     <row r="6" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -15798,40 +15762,28 @@
       <c r="R6" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="S6" s="27">
-        <f>SUM(S7:S8)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="22">
-        <v>6012</v>
-      </c>
-      <c r="V6" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="W6" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="22">
-        <v>7012</v>
-      </c>
-      <c r="Z6" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA6" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="22">
-        <v>8014</v>
-      </c>
-      <c r="AD6" s="22" t="s">
-        <v>774</v>
-      </c>
-      <c r="AE6" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="S6" s="27"/>
+      <c r="U6" s="8">
+        <v>6021</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="W6" s="32"/>
+      <c r="Y6" s="10">
+        <v>703</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA6" s="27"/>
+      <c r="AC6" s="39">
+        <v>809</v>
+      </c>
+      <c r="AD6" s="39" t="s">
+        <v>767</v>
+      </c>
+      <c r="AE6" s="40"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
@@ -15862,46 +15814,34 @@
         <v>446</v>
       </c>
       <c r="O7" s="27"/>
-      <c r="Q7" s="22">
-        <v>5031</v>
-      </c>
-      <c r="R7" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="S7" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="22">
-        <v>6017</v>
-      </c>
-      <c r="V7" s="22" t="s">
-        <v>683</v>
-      </c>
-      <c r="W7" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="Q7" s="10">
+        <v>504</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="S7" s="27"/>
+      <c r="U7" s="8">
+        <v>6022</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="W7" s="32"/>
       <c r="Y7" s="10">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>760</v>
-      </c>
-      <c r="AA7" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="22">
-        <v>8016</v>
-      </c>
-      <c r="AD7" s="22" t="s">
-        <v>773</v>
-      </c>
-      <c r="AE7" s="28">
-        <f>SUM(AE8:AE9)</f>
-        <v>0</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="AA7" s="27"/>
+      <c r="AC7" s="9">
+        <v>88</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="AE7" s="26"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -15932,46 +15872,34 @@
         <v>443</v>
       </c>
       <c r="O8" s="27"/>
-      <c r="Q8" s="22">
-        <v>5035</v>
-      </c>
-      <c r="R8" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="S8" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="6">
-        <v>602</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="W8" s="27">
-        <f>SUM(W9,W12,W18)</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="10">
-        <v>703</v>
-      </c>
-      <c r="Z8" s="10" t="s">
-        <v>759</v>
-      </c>
-      <c r="AA8" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="23">
-        <v>80161</v>
-      </c>
-      <c r="AD8" s="23" t="s">
-        <v>660</v>
-      </c>
-      <c r="AE8" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="Q8" s="10">
+        <v>505</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="S8" s="27"/>
+      <c r="U8" s="8">
+        <v>6026</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="W8" s="32"/>
+      <c r="Y8" s="11">
+        <v>7041</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA8" s="32"/>
+      <c r="AC8" s="9">
+        <v>89</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="AE8" s="26"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
@@ -16003,45 +15931,33 @@
       </c>
       <c r="O9" s="27"/>
       <c r="Q9" s="10">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="S9" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="8">
-        <v>6021</v>
-      </c>
-      <c r="V9" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="W9" s="32">
-        <f>SUM(W10:W11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="10">
-        <v>704</v>
-      </c>
-      <c r="Z9" s="10" t="s">
-        <v>758</v>
-      </c>
-      <c r="AA9" s="27">
-        <f>SUM(AA10:AA11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="23">
-        <v>80165</v>
-      </c>
-      <c r="AD9" s="23" t="s">
-        <v>659</v>
-      </c>
-      <c r="AE9" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="S9" s="27"/>
+      <c r="U9" s="6">
+        <v>604</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="W9" s="27"/>
+      <c r="Y9" s="11">
+        <v>7042</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="AA9" s="32"/>
+      <c r="AC9" s="6">
+        <v>890</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="AE9" s="27"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
@@ -16073,45 +15989,33 @@
       </c>
       <c r="O10" s="47"/>
       <c r="Q10" s="10">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="S10" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="23">
-        <v>60211</v>
-      </c>
-      <c r="V10" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="W10" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="11">
-        <v>7041</v>
-      </c>
-      <c r="Z10" s="11" t="s">
-        <v>757</v>
-      </c>
-      <c r="AA10" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="22">
-        <v>8018</v>
-      </c>
-      <c r="AD10" s="22" t="s">
-        <v>772</v>
-      </c>
-      <c r="AE10" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="S10" s="27"/>
+      <c r="U10" s="6">
+        <v>605</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="W10" s="27"/>
+      <c r="Y10" s="20">
+        <v>705</v>
+      </c>
+      <c r="Z10" s="20" t="s">
+        <v>755</v>
+      </c>
+      <c r="AA10" s="27"/>
+      <c r="AC10" s="6">
+        <v>891</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="AE10" s="27"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
@@ -16143,45 +16047,26 @@
       </c>
       <c r="O11" s="32"/>
       <c r="Q11" s="10">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="S11" s="27">
-        <f>SUM(S12:S13)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="23">
-        <v>60212</v>
-      </c>
-      <c r="V11" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="W11" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>7042</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="AA11" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="39">
-        <v>802</v>
-      </c>
-      <c r="AD11" s="39" t="s">
-        <v>881</v>
-      </c>
-      <c r="AE11" s="40">
-        <f>SUM(AE12:AE14,AE17)</f>
-        <v>0</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="S11" s="27"/>
+      <c r="U11" s="6">
+        <v>606</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="W11" s="27"/>
+      <c r="Y11" s="50">
+        <v>706</v>
+      </c>
+      <c r="Z11" s="50" t="s">
+        <v>754</v>
+      </c>
+      <c r="AA11" s="40"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
@@ -16212,46 +16097,27 @@
         <v>437</v>
       </c>
       <c r="O12" s="32"/>
-      <c r="Q12" s="22">
-        <v>5061</v>
-      </c>
-      <c r="R12" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="S12" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="8">
-        <v>6022</v>
-      </c>
-      <c r="V12" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="W12" s="32">
-        <f>SUM(W13:W17)</f>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="20">
-        <v>705</v>
-      </c>
-      <c r="Z12" s="20" t="s">
-        <v>755</v>
-      </c>
-      <c r="AA12" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="22">
-        <v>8021</v>
-      </c>
-      <c r="AD12" s="22" t="s">
-        <v>771</v>
-      </c>
-      <c r="AE12" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="Q12" s="10">
+        <v>509</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="S12" s="27"/>
+      <c r="U12" s="6">
+        <v>607</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="W12" s="27"/>
+      <c r="Y12" s="50">
+        <v>707</v>
+      </c>
+      <c r="Z12" s="50" t="s">
+        <v>753</v>
+      </c>
+      <c r="AA12" s="40"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
@@ -16282,46 +16148,27 @@
         <v>436</v>
       </c>
       <c r="O13" s="32"/>
-      <c r="Q13" s="22">
-        <v>5065</v>
-      </c>
-      <c r="R13" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="S13" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="23">
-        <v>60221</v>
-      </c>
-      <c r="V13" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="W13" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="50">
-        <v>706</v>
-      </c>
-      <c r="Z13" s="50" t="s">
-        <v>754</v>
-      </c>
-      <c r="AA13" s="40">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="22">
-        <v>8024</v>
-      </c>
-      <c r="AD13" s="22" t="s">
-        <v>770</v>
-      </c>
-      <c r="AE13" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="Q13" s="45">
+        <v>51</v>
+      </c>
+      <c r="R13" s="45" t="s">
+        <v>476</v>
+      </c>
+      <c r="S13" s="44"/>
+      <c r="U13" s="6">
+        <v>608</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="W13" s="27"/>
+      <c r="Y13" s="39">
+        <v>708</v>
+      </c>
+      <c r="Z13" s="39" t="s">
+        <v>752</v>
+      </c>
+      <c r="AA13" s="40"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -16353,45 +16200,26 @@
       </c>
       <c r="O14" s="32"/>
       <c r="Q14" s="10">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="S14" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U14" s="23">
-        <v>60222</v>
-      </c>
-      <c r="V14" s="23" t="s">
-        <v>681</v>
-      </c>
-      <c r="W14" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="50">
-        <v>707</v>
-      </c>
-      <c r="Z14" s="50" t="s">
-        <v>753</v>
-      </c>
-      <c r="AA14" s="40">
-        <f>SUM(AA15:AA16)</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="22">
-        <v>8026</v>
-      </c>
-      <c r="AD14" s="22" t="s">
-        <v>769</v>
-      </c>
-      <c r="AE14" s="28">
-        <f>SUM(AE15:AE16)</f>
-        <v>0</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="S14" s="27"/>
+      <c r="U14" s="6">
+        <v>609</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="W14" s="27"/>
+      <c r="Y14" s="39">
+        <v>709</v>
+      </c>
+      <c r="Z14" s="39" t="s">
+        <v>744</v>
+      </c>
+      <c r="AA14" s="40"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
@@ -16423,45 +16251,26 @@
       </c>
       <c r="O15" s="26"/>
       <c r="Q15" s="10">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="S15" s="27">
-        <f>SUM(S16:S18)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="23">
-        <v>60223</v>
-      </c>
-      <c r="V15" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="W15" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="22">
-        <v>7071</v>
-      </c>
-      <c r="Z15" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA15" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="23">
-        <v>80261</v>
-      </c>
-      <c r="AD15" s="23" t="s">
-        <v>660</v>
-      </c>
-      <c r="AE15" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="S15" s="27"/>
+      <c r="U15" s="49">
+        <v>603</v>
+      </c>
+      <c r="V15" s="49" t="s">
+        <v>931</v>
+      </c>
+      <c r="W15" s="40"/>
+      <c r="Y15" s="9">
+        <v>71</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="AA15" s="26"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -16492,48 +16301,29 @@
         <v>432</v>
       </c>
       <c r="O16" s="40"/>
-      <c r="Q16" s="22">
-        <v>5081</v>
-      </c>
-      <c r="R16" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="S16" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="23">
-        <v>60224</v>
-      </c>
-      <c r="V16" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="W16" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="22">
-        <v>7072</v>
-      </c>
-      <c r="Z16" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA16" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="23">
-        <v>80265</v>
-      </c>
-      <c r="AD16" s="23" t="s">
-        <v>659</v>
-      </c>
-      <c r="AE16" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q16" s="10">
+        <v>514</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="S16" s="27"/>
+      <c r="U16" s="8">
+        <v>6031</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="W16" s="32"/>
+      <c r="Y16" s="39">
+        <v>713</v>
+      </c>
+      <c r="Z16" s="39" t="s">
+        <v>949</v>
+      </c>
+      <c r="AA16" s="40"/>
+    </row>
+    <row r="17" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -16562,48 +16352,29 @@
         <v>431</v>
       </c>
       <c r="O17" s="27"/>
-      <c r="Q17" s="22">
-        <v>5082</v>
-      </c>
-      <c r="R17" s="22" t="s">
-        <v>479</v>
-      </c>
-      <c r="S17" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="23">
-        <v>60225</v>
-      </c>
-      <c r="V17" s="23" t="s">
-        <v>680</v>
-      </c>
-      <c r="W17" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="39">
-        <v>708</v>
-      </c>
-      <c r="Z17" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="AA17" s="40">
-        <f>SUM(AA18:AA25)</f>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="22">
-        <v>8028</v>
-      </c>
-      <c r="AD17" s="22" t="s">
-        <v>768</v>
-      </c>
-      <c r="AE17" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q17" s="10">
+        <v>515</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="S17" s="27"/>
+      <c r="U17" s="8">
+        <v>6032</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="W17" s="32"/>
+      <c r="Y17" s="11">
+        <v>7133</v>
+      </c>
+      <c r="Z17" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="AA17" s="32"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="43">
         <v>12</v>
       </c>
@@ -16632,48 +16403,29 @@
         <v>428</v>
       </c>
       <c r="O18" s="27"/>
-      <c r="Q18" s="22">
-        <v>5088</v>
-      </c>
-      <c r="R18" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="S18" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="Q18" s="10">
+        <v>516</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="S18" s="27"/>
       <c r="U18" s="8">
-        <v>6026</v>
+        <v>6037</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="W18" s="32">
-        <f>SUM(W19:W21)</f>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="22">
-        <v>7081</v>
-      </c>
-      <c r="Z18" s="22" t="s">
-        <v>751</v>
-      </c>
-      <c r="AA18" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="39">
-        <v>809</v>
-      </c>
-      <c r="AD18" s="39" t="s">
-        <v>767</v>
-      </c>
-      <c r="AE18" s="40">
-        <f>SUM(AE19:AE20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+      <c r="W18" s="32"/>
+      <c r="Y18" s="11">
+        <v>7134</v>
+      </c>
+      <c r="Z18" s="11" t="s">
+        <v>735</v>
+      </c>
+      <c r="AA18" s="32"/>
+    </row>
+    <row r="19" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -16703,47 +16455,28 @@
       </c>
       <c r="O19" s="27"/>
       <c r="Q19" s="10">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="S19" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="23">
-        <v>60261</v>
-      </c>
-      <c r="V19" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="W19" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="22">
-        <v>7082</v>
-      </c>
-      <c r="Z19" s="22" t="s">
-        <v>750</v>
-      </c>
-      <c r="AA19" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="22">
-        <v>8091</v>
-      </c>
-      <c r="AD19" s="22" t="s">
-        <v>766</v>
-      </c>
-      <c r="AE19" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="S19" s="27"/>
+      <c r="U19" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="W19" s="26"/>
+      <c r="Y19" s="11">
+        <v>7135</v>
+      </c>
+      <c r="Z19" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="AA19" s="32"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>131</v>
       </c>
@@ -16772,48 +16505,29 @@
         <v>426</v>
       </c>
       <c r="O20" s="27"/>
-      <c r="Q20" s="45">
-        <v>51</v>
-      </c>
-      <c r="R20" s="45" t="s">
-        <v>476</v>
-      </c>
-      <c r="S20" s="44">
-        <f>SUM(S21,S26,S29:S33,S36)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="23">
-        <v>60265</v>
-      </c>
-      <c r="V20" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="W20" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="22">
-        <v>7083</v>
-      </c>
-      <c r="Z20" s="22" t="s">
-        <v>749</v>
-      </c>
-      <c r="AA20" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="22">
-        <v>8092</v>
-      </c>
-      <c r="AD20" s="22" t="s">
-        <v>765</v>
-      </c>
-      <c r="AE20" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q20" s="10">
+        <v>518</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="S20" s="27"/>
+      <c r="U20" s="45">
+        <v>61</v>
+      </c>
+      <c r="V20" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="W20" s="44"/>
+      <c r="Y20" s="45">
+        <v>72</v>
+      </c>
+      <c r="Z20" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA20" s="44"/>
+    </row>
+    <row r="21" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>138</v>
       </c>
@@ -16843,47 +16557,28 @@
       </c>
       <c r="O21" s="40"/>
       <c r="Q21" s="10">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="S21" s="27">
-        <f>SUM(S22:S25)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="23">
-        <v>60267</v>
-      </c>
-      <c r="V21" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="W21" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="22">
-        <v>7084</v>
-      </c>
-      <c r="Z21" s="22" t="s">
-        <v>748</v>
-      </c>
-      <c r="AA21" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="9">
-        <v>88</v>
-      </c>
-      <c r="AD21" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="AE21" s="26">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="S21" s="27"/>
+      <c r="U21" s="6">
+        <v>611</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="W21" s="27"/>
+      <c r="Y21" s="10">
+        <v>721</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA21" s="27"/>
+    </row>
+    <row r="22" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>139</v>
       </c>
@@ -16912,48 +16607,29 @@
         <v>422</v>
       </c>
       <c r="O22" s="32"/>
-      <c r="Q22" s="22">
-        <v>5111</v>
-      </c>
-      <c r="R22" s="22" t="s">
-        <v>474</v>
-      </c>
-      <c r="S22" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="Q22" s="9">
+        <v>52</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="S22" s="26"/>
       <c r="U22" s="6">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="V22" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="W22" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="22">
-        <v>7085</v>
-      </c>
-      <c r="Z22" s="22" t="s">
-        <v>747</v>
-      </c>
-      <c r="AA22" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="9">
-        <v>89</v>
-      </c>
-      <c r="AD22" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE22" s="26">
-        <f>SUM(AE23:AE24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" ht="38.25" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+      <c r="W22" s="27"/>
+      <c r="Y22" s="10">
+        <v>722</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA22" s="27"/>
+    </row>
+    <row r="23" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>1391</v>
       </c>
@@ -16982,48 +16658,29 @@
         <v>421</v>
       </c>
       <c r="O23" s="32"/>
-      <c r="Q23" s="22">
-        <v>5112</v>
-      </c>
-      <c r="R23" s="22" t="s">
-        <v>473</v>
-      </c>
-      <c r="S23" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="6">
-        <v>605</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="W23" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="22">
-        <v>7086</v>
-      </c>
-      <c r="Z23" s="22" t="s">
-        <v>746</v>
-      </c>
-      <c r="AA23" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="6">
-        <v>890</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>950</v>
-      </c>
-      <c r="AE23" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q23" s="45">
+        <v>53</v>
+      </c>
+      <c r="R23" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="S23" s="44"/>
+      <c r="U23" s="8">
+        <v>6122</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="W23" s="32"/>
+      <c r="Y23" s="45">
+        <v>74</v>
+      </c>
+      <c r="Z23" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA23" s="44"/>
+    </row>
+    <row r="24" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>1398</v>
       </c>
@@ -17052,48 +16709,29 @@
         <v>420</v>
       </c>
       <c r="O24" s="32"/>
-      <c r="Q24" s="22">
-        <v>5113</v>
-      </c>
-      <c r="R24" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="S24" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="6">
-        <v>606</v>
-      </c>
-      <c r="V24" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="W24" s="27">
-        <f>SUM(W25:W28)</f>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="22">
-        <v>7087</v>
-      </c>
-      <c r="Z24" s="22" t="s">
-        <v>745</v>
-      </c>
-      <c r="AA24" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="6">
-        <v>891</v>
-      </c>
-      <c r="AD24" s="6" t="s">
-        <v>951</v>
-      </c>
-      <c r="AE24" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q24" s="10">
+        <v>531</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="S24" s="27"/>
+      <c r="U24" s="8">
+        <v>6125</v>
+      </c>
+      <c r="V24" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="W24" s="32"/>
+      <c r="Y24" s="45">
+        <v>75</v>
+      </c>
+      <c r="Z24" s="45" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA24" s="44"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>14</v>
       </c>
@@ -17122,38 +16760,29 @@
         <v>419</v>
       </c>
       <c r="O25" s="32"/>
-      <c r="Q25" s="22">
-        <v>5114</v>
-      </c>
-      <c r="R25" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="S25" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="22">
-        <v>6061</v>
-      </c>
-      <c r="V25" s="22" t="s">
-        <v>928</v>
-      </c>
-      <c r="W25" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="22">
-        <v>7088</v>
-      </c>
-      <c r="Z25" s="22" t="s">
-        <v>947</v>
-      </c>
-      <c r="AA25" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q25" s="45">
+        <v>54</v>
+      </c>
+      <c r="R25" s="45" t="s">
+        <v>454</v>
+      </c>
+      <c r="S25" s="44"/>
+      <c r="U25" s="6">
+        <v>613</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="W25" s="27"/>
+      <c r="Y25" s="10">
+        <v>751</v>
+      </c>
+      <c r="Z25" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="AA25" s="27"/>
+    </row>
+    <row r="26" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>142</v>
       </c>
@@ -17182,38 +16811,29 @@
         <v>35</v>
       </c>
       <c r="O26" s="26"/>
-      <c r="Q26" s="10">
-        <v>512</v>
-      </c>
-      <c r="R26" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="S26" s="27">
-        <f>SUM(S27:S28)</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="22">
-        <v>6063</v>
-      </c>
-      <c r="V26" s="22" t="s">
-        <v>675</v>
-      </c>
-      <c r="W26" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="39">
-        <v>709</v>
-      </c>
-      <c r="Z26" s="39" t="s">
-        <v>744</v>
-      </c>
-      <c r="AA26" s="40">
-        <f>SUM(AA27:AA33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q26" s="45">
+        <v>58</v>
+      </c>
+      <c r="R26" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="S26" s="44"/>
+      <c r="U26" s="6">
+        <v>614</v>
+      </c>
+      <c r="V26" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="W26" s="27"/>
+      <c r="Y26" s="10">
+        <v>752</v>
+      </c>
+      <c r="Z26" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA26" s="27"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>143</v>
       </c>
@@ -17242,38 +16862,29 @@
         <v>418</v>
       </c>
       <c r="O27" s="40"/>
-      <c r="Q27" s="22">
-        <v>5121</v>
-      </c>
-      <c r="R27" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="S27" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="22">
-        <v>6064</v>
-      </c>
-      <c r="V27" s="22" t="s">
-        <v>674</v>
-      </c>
-      <c r="W27" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="22">
-        <v>7091</v>
-      </c>
-      <c r="Z27" s="22" t="s">
-        <v>743</v>
-      </c>
-      <c r="AA27" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q27" s="9">
+        <v>59</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="S27" s="26"/>
+      <c r="U27" s="6">
+        <v>615</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="W27" s="27"/>
+      <c r="Y27" s="39">
+        <v>753</v>
+      </c>
+      <c r="Z27" s="39" t="s">
+        <v>728</v>
+      </c>
+      <c r="AA27" s="40"/>
+    </row>
+    <row r="28" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>144</v>
       </c>
@@ -17302,38 +16913,29 @@
         <v>825</v>
       </c>
       <c r="O28" s="27"/>
-      <c r="Q28" s="22">
-        <v>5124</v>
-      </c>
-      <c r="R28" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="S28" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="22">
-        <v>6068</v>
-      </c>
-      <c r="V28" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="W28" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="22">
-        <v>7092</v>
-      </c>
-      <c r="Z28" s="22" t="s">
-        <v>742</v>
-      </c>
-      <c r="AA28" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q28" s="39">
+        <v>590</v>
+      </c>
+      <c r="R28" s="39" t="s">
+        <v>848</v>
+      </c>
+      <c r="S28" s="40"/>
+      <c r="U28" s="6">
+        <v>616</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="W28" s="27"/>
+      <c r="Y28" s="39">
+        <v>754</v>
+      </c>
+      <c r="Z28" s="39" t="s">
+        <v>864</v>
+      </c>
+      <c r="AA28" s="40"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>145</v>
       </c>
@@ -17362,38 +16964,29 @@
         <v>145</v>
       </c>
       <c r="O29" s="27"/>
-      <c r="Q29" s="10">
-        <v>514</v>
-      </c>
-      <c r="R29" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="S29" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="Q29" s="11">
+        <v>5903</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="S29" s="32"/>
       <c r="U29" s="6">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="W29" s="27">
-        <f>SUM(W30:W31)</f>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="22">
-        <v>7094</v>
-      </c>
-      <c r="Z29" s="22" t="s">
-        <v>741</v>
-      </c>
-      <c r="AA29" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+      <c r="W29" s="27"/>
+      <c r="Y29" s="39">
+        <v>755</v>
+      </c>
+      <c r="Z29" s="39" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA29" s="40"/>
+    </row>
+    <row r="30" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>146</v>
       </c>
@@ -17422,38 +17015,29 @@
         <v>415</v>
       </c>
       <c r="O30" s="27"/>
-      <c r="Q30" s="10">
-        <v>515</v>
-      </c>
-      <c r="R30" s="10" t="s">
-        <v>925</v>
-      </c>
-      <c r="S30" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="22">
-        <v>6071</v>
-      </c>
-      <c r="V30" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="W30" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="22">
-        <v>7095</v>
-      </c>
-      <c r="Z30" s="22" t="s">
-        <v>740</v>
-      </c>
-      <c r="AA30" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q30" s="11">
+        <v>5904</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="S30" s="32"/>
+      <c r="U30" s="6">
+        <v>618</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="W30" s="27"/>
+      <c r="Y30" s="10">
+        <v>756</v>
+      </c>
+      <c r="Z30" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="AA30" s="27"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>147</v>
       </c>
@@ -17475,38 +17059,29 @@
         <v>414</v>
       </c>
       <c r="O31" s="27"/>
-      <c r="Q31" s="10">
-        <v>516</v>
-      </c>
-      <c r="R31" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="S31" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="22">
-        <v>6072</v>
-      </c>
-      <c r="V31" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="W31" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="22">
-        <v>7096</v>
-      </c>
-      <c r="Z31" s="22" t="s">
-        <v>739</v>
-      </c>
-      <c r="AA31" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Q31" s="11">
+        <v>5906</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="S31" s="32"/>
+      <c r="U31" s="6">
+        <v>619</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="W31" s="27"/>
+      <c r="Y31" s="10">
+        <v>758</v>
+      </c>
+      <c r="Z31" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="AA31" s="27"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>148</v>
       </c>
@@ -17528,36 +17103,27 @@
         <v>413</v>
       </c>
       <c r="O32" s="27"/>
-      <c r="Q32" s="10">
-        <v>517</v>
-      </c>
-      <c r="R32" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="S32" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="6">
-        <v>608</v>
-      </c>
-      <c r="V32" s="6" t="s">
-        <v>929</v>
-      </c>
-      <c r="W32" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="22">
-        <v>7097</v>
-      </c>
-      <c r="Z32" s="22" t="s">
-        <v>738</v>
-      </c>
-      <c r="AA32" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="Q32" s="11">
+        <v>5908</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="S32" s="32"/>
+      <c r="U32" s="45">
+        <v>62</v>
+      </c>
+      <c r="V32" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="W32" s="44"/>
+      <c r="Y32" s="45">
+        <v>76</v>
+      </c>
+      <c r="Z32" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA32" s="44"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="45">
@@ -17581,36 +17147,20 @@
         <v>412</v>
       </c>
       <c r="O33" s="40"/>
-      <c r="Q33" s="10">
-        <v>518</v>
-      </c>
-      <c r="R33" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="S33" s="27">
-        <f>SUM(S34:S35)</f>
-        <v>0</v>
-      </c>
       <c r="U33" s="6">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="V33" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="W33" s="27">
-        <f>SUM(W34:W40)</f>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="22">
-        <v>7098</v>
-      </c>
-      <c r="Z33" s="22" t="s">
-        <v>737</v>
-      </c>
-      <c r="AA33" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="W33" s="27"/>
+      <c r="Y33" s="10">
+        <v>761</v>
+      </c>
+      <c r="Z33" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA33" s="27"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
@@ -17634,36 +17184,20 @@
         <v>408</v>
       </c>
       <c r="O34" s="44"/>
-      <c r="Q34" s="22">
-        <v>5181</v>
-      </c>
-      <c r="R34" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="S34" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="22">
-        <v>6091</v>
-      </c>
-      <c r="V34" s="22" t="s">
-        <v>930</v>
-      </c>
-      <c r="W34" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="9">
-        <v>71</v>
-      </c>
-      <c r="Z34" s="9" t="s">
-        <v>948</v>
-      </c>
-      <c r="AA34" s="26">
-        <f>SUM(AA35)</f>
-        <v>0</v>
-      </c>
+      <c r="U34" s="6">
+        <v>622</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="W34" s="27"/>
+      <c r="Y34" s="10">
+        <v>762</v>
+      </c>
+      <c r="Z34" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="AA34" s="27"/>
     </row>
     <row r="35" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
@@ -17687,36 +17221,20 @@
         <v>407</v>
       </c>
       <c r="O35" s="27"/>
-      <c r="Q35" s="22">
-        <v>5188</v>
-      </c>
-      <c r="R35" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="S35" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="22">
-        <v>6092</v>
-      </c>
-      <c r="V35" s="22" t="s">
-        <v>670</v>
-      </c>
-      <c r="W35" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="39">
-        <v>713</v>
-      </c>
-      <c r="Z35" s="39" t="s">
-        <v>949</v>
-      </c>
-      <c r="AA35" s="40">
-        <f>SUM(AA36,AA39,AA42)</f>
-        <v>0</v>
-      </c>
+      <c r="U35" s="6">
+        <v>623</v>
+      </c>
+      <c r="V35" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="W35" s="27"/>
+      <c r="Y35" s="10">
+        <v>763</v>
+      </c>
+      <c r="Z35" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA35" s="27"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
@@ -17740,36 +17258,20 @@
         <v>406</v>
       </c>
       <c r="O36" s="27"/>
-      <c r="Q36" s="10">
-        <v>519</v>
-      </c>
-      <c r="R36" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="S36" s="27">
-        <f>SUM(S37:S39)</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="22">
-        <v>6094</v>
-      </c>
-      <c r="V36" s="22" t="s">
-        <v>669</v>
-      </c>
-      <c r="W36" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="11">
-        <v>7133</v>
-      </c>
-      <c r="Z36" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="AA36" s="32">
-        <f>SUM(AA37:AA38)</f>
-        <v>0</v>
-      </c>
+      <c r="U36" s="6">
+        <v>624</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="W36" s="27"/>
+      <c r="Y36" s="10">
+        <v>764</v>
+      </c>
+      <c r="Z36" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="AA36" s="27"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
@@ -17793,36 +17295,20 @@
         <v>405</v>
       </c>
       <c r="O37" s="27"/>
-      <c r="Q37" s="22">
-        <v>5191</v>
-      </c>
-      <c r="R37" s="22" t="s">
-        <v>926</v>
-      </c>
-      <c r="S37" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="22">
-        <v>6095</v>
-      </c>
-      <c r="V37" s="22" t="s">
-        <v>668</v>
-      </c>
-      <c r="W37" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="23">
-        <v>71331</v>
-      </c>
-      <c r="Z37" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="AA37" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U37" s="6">
+        <v>625</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="W37" s="27"/>
+      <c r="Y37" s="10">
+        <v>765</v>
+      </c>
+      <c r="Z37" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="AA37" s="27"/>
     </row>
     <row r="38" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
@@ -17846,36 +17332,20 @@
         <v>402</v>
       </c>
       <c r="O38" s="26"/>
-      <c r="Q38" s="22">
-        <v>5193</v>
-      </c>
-      <c r="R38" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="S38" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="22">
-        <v>6096</v>
-      </c>
-      <c r="V38" s="22" t="s">
-        <v>667</v>
-      </c>
-      <c r="W38" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="23">
-        <v>71335</v>
-      </c>
-      <c r="Z38" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA38" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U38" s="6">
+        <v>626</v>
+      </c>
+      <c r="V38" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="W38" s="27"/>
+      <c r="Y38" s="10">
+        <v>766</v>
+      </c>
+      <c r="Z38" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="AA38" s="27"/>
     </row>
     <row r="39" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
@@ -17899,36 +17369,20 @@
         <v>401</v>
       </c>
       <c r="O39" s="27"/>
-      <c r="Q39" s="22">
-        <v>5198</v>
-      </c>
-      <c r="R39" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="S39" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U39" s="22">
-        <v>6097</v>
-      </c>
-      <c r="V39" s="22" t="s">
-        <v>666</v>
-      </c>
-      <c r="W39" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="11">
-        <v>7134</v>
-      </c>
-      <c r="Z39" s="11" t="s">
-        <v>735</v>
-      </c>
-      <c r="AA39" s="32">
-        <f>SUM(AA40:AA41)</f>
-        <v>0</v>
-      </c>
+      <c r="U39" s="6">
+        <v>627</v>
+      </c>
+      <c r="V39" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="W39" s="27"/>
+      <c r="Y39" s="10">
+        <v>767</v>
+      </c>
+      <c r="Z39" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA39" s="27"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
@@ -17952,36 +17406,20 @@
         <v>826</v>
       </c>
       <c r="O40" s="27"/>
-      <c r="Q40" s="9">
-        <v>52</v>
-      </c>
-      <c r="R40" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="S40" s="26">
-        <f>SUM(S41:S43)</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="22">
-        <v>6098</v>
-      </c>
-      <c r="V40" s="22" t="s">
-        <v>665</v>
-      </c>
-      <c r="W40" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="23">
-        <v>71341</v>
-      </c>
-      <c r="Z40" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA40" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U40" s="6">
+        <v>628</v>
+      </c>
+      <c r="V40" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="W40" s="27"/>
+      <c r="Y40" s="10">
+        <v>768</v>
+      </c>
+      <c r="Z40" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="AA40" s="27"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="45">
@@ -18005,36 +17443,20 @@
         <v>827</v>
       </c>
       <c r="O41" s="32"/>
-      <c r="Q41" s="48">
-        <v>521</v>
-      </c>
-      <c r="R41" s="48" t="s">
-        <v>844</v>
-      </c>
-      <c r="S41" s="35">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="49">
-        <v>603</v>
-      </c>
-      <c r="V41" s="49" t="s">
-        <v>931</v>
-      </c>
-      <c r="W41" s="40">
-        <f>SUM(W42:W44)</f>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="23">
-        <v>71345</v>
-      </c>
-      <c r="Z41" s="23" t="s">
-        <v>734</v>
-      </c>
-      <c r="AA41" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U41" s="6">
+        <v>629</v>
+      </c>
+      <c r="V41" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="W41" s="27"/>
+      <c r="Y41" s="45">
+        <v>77</v>
+      </c>
+      <c r="Z41" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA41" s="44"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
@@ -18058,36 +17480,20 @@
         <v>828</v>
       </c>
       <c r="O42" s="32"/>
-      <c r="Q42" s="48">
-        <v>522</v>
-      </c>
-      <c r="R42" s="48" t="s">
-        <v>845</v>
-      </c>
-      <c r="S42" s="35">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U42" s="8">
-        <v>6031</v>
-      </c>
-      <c r="V42" s="8" t="s">
-        <v>932</v>
-      </c>
-      <c r="W42" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="11">
-        <v>7135</v>
-      </c>
-      <c r="Z42" s="11" t="s">
-        <v>733</v>
-      </c>
-      <c r="AA42" s="32">
-        <f>SUM(AA43:AA45)</f>
-        <v>0</v>
-      </c>
+      <c r="U42" s="45">
+        <v>63</v>
+      </c>
+      <c r="V42" s="45" t="s">
+        <v>595</v>
+      </c>
+      <c r="W42" s="44"/>
+      <c r="Y42" s="10">
+        <v>771</v>
+      </c>
+      <c r="Z42" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="AA42" s="27"/>
     </row>
     <row r="43" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
@@ -18111,36 +17517,20 @@
         <v>829</v>
       </c>
       <c r="O43" s="32"/>
-      <c r="Q43" s="48">
-        <v>523</v>
-      </c>
-      <c r="R43" s="48" t="s">
-        <v>846</v>
-      </c>
-      <c r="S43" s="35">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U43" s="8">
-        <v>6032</v>
-      </c>
-      <c r="V43" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="W43" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="23">
-        <v>71351</v>
-      </c>
-      <c r="Z43" s="23" t="s">
-        <v>732</v>
-      </c>
-      <c r="AA43" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U43" s="6">
+        <v>631</v>
+      </c>
+      <c r="V43" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="W43" s="27"/>
+      <c r="Y43" s="10">
+        <v>772</v>
+      </c>
+      <c r="Z43" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="AA43" s="27"/>
     </row>
     <row r="44" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
@@ -18164,36 +17554,20 @@
         <v>395</v>
       </c>
       <c r="O44" s="27"/>
-      <c r="Q44" s="45">
-        <v>53</v>
-      </c>
-      <c r="R44" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="S44" s="44">
-        <f>SUM(S45,S48:S49)</f>
-        <v>0</v>
-      </c>
-      <c r="U44" s="8">
-        <v>6037</v>
-      </c>
-      <c r="V44" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="W44" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y44" s="23">
-        <v>71355</v>
-      </c>
-      <c r="Z44" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA44" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U44" s="6">
+        <v>633</v>
+      </c>
+      <c r="V44" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="W44" s="27"/>
+      <c r="Y44" s="10">
+        <v>774</v>
+      </c>
+      <c r="Z44" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="AA44" s="27"/>
     </row>
     <row r="45" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
@@ -18217,36 +17591,20 @@
         <v>394</v>
       </c>
       <c r="O45" s="32"/>
-      <c r="Q45" s="10">
-        <v>531</v>
-      </c>
-      <c r="R45" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="S45" s="27">
-        <f>SUM(S46:S47)</f>
-        <v>0</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="W45" s="26">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y45" s="23">
-        <v>71358</v>
-      </c>
-      <c r="Z45" s="23" t="s">
-        <v>731</v>
-      </c>
-      <c r="AA45" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U45" s="6">
+        <v>635</v>
+      </c>
+      <c r="V45" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="W45" s="27"/>
+      <c r="Y45" s="10">
+        <v>775</v>
+      </c>
+      <c r="Z45" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="AA45" s="27"/>
     </row>
     <row r="46" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
@@ -18270,36 +17628,20 @@
         <v>393</v>
       </c>
       <c r="O46" s="32"/>
-      <c r="Q46" s="22">
-        <v>5311</v>
-      </c>
-      <c r="R46" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="S46" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U46" s="45">
-        <v>61</v>
-      </c>
-      <c r="V46" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="W46" s="44">
-        <f>SUM(W47:W48,W51,W55:W56,W60,W69:W70,W74)</f>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="45">
-        <v>72</v>
-      </c>
-      <c r="Z46" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA46" s="44">
-        <f>SUM(AA47:AA48)</f>
-        <v>0</v>
-      </c>
+      <c r="U46" s="8">
+        <v>6358</v>
+      </c>
+      <c r="V46" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="W46" s="32"/>
+      <c r="Y46" s="10">
+        <v>777</v>
+      </c>
+      <c r="Z46" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="AA46" s="27"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
@@ -18323,36 +17665,20 @@
         <v>392</v>
       </c>
       <c r="O47" s="40"/>
-      <c r="Q47" s="22">
-        <v>5314</v>
-      </c>
-      <c r="R47" s="22" t="s">
-        <v>457</v>
-      </c>
-      <c r="S47" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
       <c r="U47" s="6">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="V47" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="W47" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="W47" s="27"/>
       <c r="Y47" s="10">
-        <v>721</v>
+        <v>778</v>
       </c>
       <c r="Z47" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA47" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="AA47" s="27"/>
     </row>
     <row r="48" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
@@ -18376,36 +17702,20 @@
         <v>391</v>
       </c>
       <c r="O48" s="40"/>
-      <c r="Q48" s="24">
-        <v>532</v>
-      </c>
-      <c r="R48" s="24" t="s">
-        <v>456</v>
-      </c>
-      <c r="S48" s="35">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="6">
-        <v>612</v>
-      </c>
-      <c r="V48" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="W48" s="27">
-        <f>SUM(W49:W50)</f>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="10">
-        <v>722</v>
-      </c>
-      <c r="Z48" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA48" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U48" s="9">
+        <v>64</v>
+      </c>
+      <c r="V48" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="W48" s="26"/>
+      <c r="Y48" s="9">
+        <v>78</v>
+      </c>
+      <c r="Z48" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="AA48" s="26"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
@@ -18429,36 +17739,20 @@
         <v>390</v>
       </c>
       <c r="O49" s="32"/>
-      <c r="Q49" s="24">
-        <v>533</v>
-      </c>
-      <c r="R49" s="24" t="s">
-        <v>455</v>
-      </c>
-      <c r="S49" s="35">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U49" s="8">
-        <v>6122</v>
-      </c>
-      <c r="V49" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="W49" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="45">
-        <v>74</v>
-      </c>
-      <c r="Z49" s="45" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA49" s="44">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U49" s="39">
+        <v>641</v>
+      </c>
+      <c r="V49" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="W49" s="40"/>
+      <c r="Y49" s="39">
+        <v>781</v>
+      </c>
+      <c r="Z49" s="39" t="s">
+        <v>873</v>
+      </c>
+      <c r="AA49" s="40"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
@@ -18482,36 +17776,20 @@
         <v>389</v>
       </c>
       <c r="O50" s="32"/>
-      <c r="Q50" s="45">
-        <v>54</v>
-      </c>
-      <c r="R50" s="45" t="s">
-        <v>454</v>
-      </c>
-      <c r="S50" s="44">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U50" s="8">
-        <v>6125</v>
-      </c>
-      <c r="V50" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="W50" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y50" s="45">
-        <v>75</v>
-      </c>
-      <c r="Z50" s="45" t="s">
-        <v>730</v>
-      </c>
-      <c r="AA50" s="44">
-        <f>SUM(AA51,AA55:AA58,AA61:AA62)</f>
-        <v>0</v>
-      </c>
+      <c r="U50" s="39">
+        <v>644</v>
+      </c>
+      <c r="V50" s="39" t="s">
+        <v>563</v>
+      </c>
+      <c r="W50" s="40"/>
+      <c r="Y50" s="11">
+        <v>7811</v>
+      </c>
+      <c r="Z50" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA50" s="32"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
@@ -18535,36 +17813,20 @@
         <v>387</v>
       </c>
       <c r="O51" s="32"/>
-      <c r="Q51" s="45">
-        <v>58</v>
-      </c>
-      <c r="R51" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="S51" s="44">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U51" s="6">
-        <v>613</v>
-      </c>
-      <c r="V51" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="W51" s="27">
-        <f>SUM(W52:W54)</f>
-        <v>0</v>
-      </c>
-      <c r="Y51" s="10">
-        <v>751</v>
-      </c>
-      <c r="Z51" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="AA51" s="27">
-        <f>SUM(AA52:AA54)</f>
-        <v>0</v>
-      </c>
+      <c r="U51" s="39">
+        <v>645</v>
+      </c>
+      <c r="V51" s="39" t="s">
+        <v>562</v>
+      </c>
+      <c r="W51" s="40"/>
+      <c r="Y51" s="11">
+        <v>7815</v>
+      </c>
+      <c r="Z51" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="AA51" s="32"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
@@ -18588,36 +17850,20 @@
         <v>382</v>
       </c>
       <c r="O52" s="32"/>
-      <c r="Q52" s="9">
-        <v>59</v>
-      </c>
-      <c r="R52" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="S52" s="26">
-        <f>SUM(S53)</f>
-        <v>0</v>
-      </c>
-      <c r="U52" s="22">
-        <v>6132</v>
-      </c>
-      <c r="V52" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="W52" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y52" s="22">
-        <v>7511</v>
-      </c>
-      <c r="Z52" s="22" t="s">
-        <v>546</v>
-      </c>
-      <c r="AA52" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U52" s="39">
+        <v>646</v>
+      </c>
+      <c r="V52" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="W52" s="40"/>
+      <c r="Y52" s="11">
+        <v>7816</v>
+      </c>
+      <c r="Z52" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA52" s="32"/>
     </row>
     <row r="53" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
@@ -18641,36 +17887,20 @@
         <v>379</v>
       </c>
       <c r="O53" s="32"/>
-      <c r="Q53" s="39">
-        <v>590</v>
-      </c>
-      <c r="R53" s="39" t="s">
-        <v>848</v>
-      </c>
-      <c r="S53" s="40">
-        <f>SUM(S54:S57)</f>
-        <v>0</v>
-      </c>
-      <c r="U53" s="22">
-        <v>6135</v>
-      </c>
-      <c r="V53" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="W53" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y53" s="22">
-        <v>7516</v>
-      </c>
-      <c r="Z53" s="22" t="s">
-        <v>545</v>
-      </c>
-      <c r="AA53" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U53" s="6">
+        <v>647</v>
+      </c>
+      <c r="V53" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="W53" s="27"/>
+      <c r="Y53" s="11">
+        <v>7817</v>
+      </c>
+      <c r="Z53" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA53" s="32"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
@@ -18694,36 +17924,20 @@
         <v>372</v>
       </c>
       <c r="O54" s="27"/>
-      <c r="Q54" s="11">
-        <v>5903</v>
-      </c>
-      <c r="R54" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="S54" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U54" s="22">
-        <v>6136</v>
-      </c>
-      <c r="V54" s="22" t="s">
-        <v>655</v>
-      </c>
-      <c r="W54" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y54" s="22">
-        <v>7518</v>
-      </c>
-      <c r="Z54" s="22" t="s">
-        <v>544</v>
-      </c>
-      <c r="AA54" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U54" s="6">
+        <v>648</v>
+      </c>
+      <c r="V54" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="W54" s="27"/>
+      <c r="Y54" s="39">
+        <v>786</v>
+      </c>
+      <c r="Z54" s="39" t="s">
+        <v>875</v>
+      </c>
+      <c r="AA54" s="40"/>
     </row>
     <row r="55" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
@@ -18747,36 +17961,20 @@
         <v>371</v>
       </c>
       <c r="O55" s="40"/>
-      <c r="Q55" s="11">
-        <v>5904</v>
-      </c>
-      <c r="R55" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="S55" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U55" s="6">
-        <v>614</v>
-      </c>
-      <c r="V55" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="W55" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y55" s="10">
-        <v>752</v>
-      </c>
-      <c r="Z55" s="10" t="s">
-        <v>729</v>
-      </c>
-      <c r="AA55" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U55" s="45">
+        <v>65</v>
+      </c>
+      <c r="V55" s="45" t="s">
+        <v>548</v>
+      </c>
+      <c r="W55" s="44"/>
+      <c r="Y55" s="11">
+        <v>7865</v>
+      </c>
+      <c r="Z55" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="AA55" s="32"/>
     </row>
     <row r="56" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
@@ -18800,36 +17998,20 @@
         <v>370</v>
       </c>
       <c r="O56" s="27"/>
-      <c r="Q56" s="11">
-        <v>5906</v>
-      </c>
-      <c r="R56" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="S56" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
       <c r="U56" s="6">
-        <v>615</v>
+        <v>651</v>
       </c>
       <c r="V56" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="W56" s="27">
-        <f>SUM(W57:W59)</f>
-        <v>0</v>
-      </c>
-      <c r="Y56" s="39">
-        <v>753</v>
-      </c>
-      <c r="Z56" s="39" t="s">
-        <v>728</v>
-      </c>
-      <c r="AA56" s="40">
-        <f>0</f>
-        <v>0</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="W56" s="27"/>
+      <c r="Y56" s="11">
+        <v>7866</v>
+      </c>
+      <c r="Z56" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="AA56" s="32"/>
     </row>
     <row r="57" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
@@ -18853,36 +18035,20 @@
         <v>366</v>
       </c>
       <c r="O57" s="27"/>
-      <c r="Q57" s="11">
-        <v>5908</v>
-      </c>
-      <c r="R57" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="S57" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="U57" s="22">
-        <v>6152</v>
-      </c>
-      <c r="V57" s="22" t="s">
-        <v>652</v>
-      </c>
-      <c r="W57" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U57" s="6">
+        <v>653</v>
+      </c>
+      <c r="V57" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="W57" s="27"/>
       <c r="Y57" s="39">
-        <v>754</v>
+        <v>787</v>
       </c>
       <c r="Z57" s="39" t="s">
-        <v>864</v>
-      </c>
-      <c r="AA57" s="40">
-        <f>0</f>
-        <v>0</v>
-      </c>
+        <v>878</v>
+      </c>
+      <c r="AA57" s="40"/>
     </row>
     <row r="58" spans="1:27" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
@@ -18906,26 +18072,20 @@
         <v>365</v>
       </c>
       <c r="O58" s="44"/>
-      <c r="U58" s="22">
-        <v>6155</v>
-      </c>
-      <c r="V58" s="22" t="s">
-        <v>651</v>
-      </c>
-      <c r="W58" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y58" s="39">
-        <v>755</v>
-      </c>
-      <c r="Z58" s="39" t="s">
-        <v>727</v>
-      </c>
-      <c r="AA58" s="40">
-        <f>SUM(AA59:AA60)</f>
-        <v>0</v>
-      </c>
+      <c r="U58" s="6">
+        <v>654</v>
+      </c>
+      <c r="V58" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="W58" s="27"/>
+      <c r="Y58" s="11">
+        <v>7872</v>
+      </c>
+      <c r="Z58" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="AA58" s="32"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
@@ -18949,26 +18109,20 @@
         <v>364</v>
       </c>
       <c r="O59" s="27"/>
-      <c r="U59" s="22">
-        <v>6156</v>
-      </c>
-      <c r="V59" s="22" t="s">
-        <v>650</v>
-      </c>
-      <c r="W59" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y59" s="22">
-        <v>7551</v>
-      </c>
-      <c r="Z59" s="22" t="s">
-        <v>865</v>
-      </c>
-      <c r="AA59" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U59" s="6">
+        <v>655</v>
+      </c>
+      <c r="V59" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="W59" s="27"/>
+      <c r="Y59" s="11">
+        <v>7873</v>
+      </c>
+      <c r="Z59" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA59" s="32"/>
     </row>
     <row r="60" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
@@ -18993,25 +18147,19 @@
       </c>
       <c r="O60" s="40"/>
       <c r="U60" s="6">
-        <v>616</v>
+        <v>656</v>
       </c>
       <c r="V60" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="W60" s="27">
-        <f>SUM(W61:W63,W67:W68)</f>
-        <v>0</v>
-      </c>
-      <c r="Y60" s="22">
-        <v>7555</v>
-      </c>
-      <c r="Z60" s="22" t="s">
-        <v>866</v>
-      </c>
-      <c r="AA60" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+        <v>851</v>
+      </c>
+      <c r="W60" s="27"/>
+      <c r="Y60" s="11">
+        <v>7874</v>
+      </c>
+      <c r="Z60" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA60" s="32"/>
     </row>
     <row r="61" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
@@ -19035,26 +18183,20 @@
         <v>362</v>
       </c>
       <c r="O61" s="27"/>
-      <c r="U61" s="22">
-        <v>6161</v>
-      </c>
-      <c r="V61" s="22" t="s">
-        <v>648</v>
-      </c>
-      <c r="W61" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y61" s="10">
-        <v>756</v>
-      </c>
-      <c r="Z61" s="10" t="s">
-        <v>867</v>
-      </c>
-      <c r="AA61" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U61" s="6">
+        <v>658</v>
+      </c>
+      <c r="V61" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="W61" s="27"/>
+      <c r="Y61" s="11">
+        <v>7875</v>
+      </c>
+      <c r="Z61" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="AA61" s="32"/>
     </row>
     <row r="62" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
@@ -19078,26 +18220,20 @@
         <v>351</v>
       </c>
       <c r="O62" s="27"/>
-      <c r="U62" s="22">
-        <v>6162</v>
-      </c>
-      <c r="V62" s="22" t="s">
-        <v>647</v>
-      </c>
-      <c r="W62" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y62" s="10">
-        <v>758</v>
-      </c>
-      <c r="Z62" s="10" t="s">
-        <v>726</v>
-      </c>
-      <c r="AA62" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U62" s="45">
+        <v>66</v>
+      </c>
+      <c r="V62" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="W62" s="44"/>
+      <c r="Y62" s="11">
+        <v>7876</v>
+      </c>
+      <c r="Z62" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA62" s="32"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E63" s="11">
@@ -19114,26 +18250,20 @@
         <v>350</v>
       </c>
       <c r="O63" s="27"/>
-      <c r="U63" s="22">
-        <v>6163</v>
-      </c>
-      <c r="V63" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="W63" s="28">
-        <f>SUM(W64:W66)</f>
-        <v>0</v>
-      </c>
+      <c r="U63" s="6">
+        <v>661</v>
+      </c>
+      <c r="V63" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="W63" s="27"/>
       <c r="Y63" s="45">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z63" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA63" s="44">
-        <f>SUM(AA64,AA69,AA73,AA76:AA80)</f>
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AA63" s="44"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E64" s="6">
@@ -19150,26 +18280,20 @@
         <v>349</v>
       </c>
       <c r="O64" s="32"/>
-      <c r="U64" s="23">
-        <v>61636</v>
-      </c>
-      <c r="V64" s="23" t="s">
-        <v>645</v>
-      </c>
-      <c r="W64" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U64" s="6">
+        <v>664</v>
+      </c>
+      <c r="V64" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="W64" s="27"/>
       <c r="Y64" s="10">
-        <v>761</v>
+        <v>791</v>
       </c>
       <c r="Z64" s="10" t="s">
-        <v>725</v>
-      </c>
-      <c r="AA64" s="27">
-        <f>SUM(AA65:AA68)</f>
-        <v>0</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="AA64" s="27"/>
     </row>
     <row r="65" spans="5:27" ht="30" x14ac:dyDescent="0.25">
       <c r="E65" s="10">
@@ -19186,26 +18310,20 @@
         <v>123</v>
       </c>
       <c r="O65" s="32"/>
-      <c r="U65" s="23">
-        <v>61637</v>
-      </c>
-      <c r="V65" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="W65" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y65" s="22">
-        <v>7611</v>
-      </c>
-      <c r="Z65" s="22" t="s">
-        <v>724</v>
-      </c>
-      <c r="AA65" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U65" s="6">
+        <v>665</v>
+      </c>
+      <c r="V65" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="W65" s="27"/>
+      <c r="Y65" s="10">
+        <v>796</v>
+      </c>
+      <c r="Z65" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="AA65" s="27"/>
     </row>
     <row r="66" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E66" s="9">
@@ -19222,26 +18340,20 @@
         <v>348</v>
       </c>
       <c r="O66" s="44"/>
-      <c r="U66" s="23">
-        <v>61638</v>
-      </c>
-      <c r="V66" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="W66" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y66" s="22">
-        <v>7612</v>
-      </c>
-      <c r="Z66" s="22" t="s">
-        <v>868</v>
-      </c>
-      <c r="AA66" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U66" s="6">
+        <v>666</v>
+      </c>
+      <c r="V66" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="W66" s="27"/>
+      <c r="Y66" s="10">
+        <v>797</v>
+      </c>
+      <c r="Z66" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="AA66" s="27"/>
     </row>
     <row r="67" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E67" s="39">
@@ -19258,26 +18370,13 @@
         <v>342</v>
       </c>
       <c r="O67" s="44"/>
-      <c r="U67" s="22">
-        <v>6164</v>
-      </c>
-      <c r="V67" s="22" t="s">
-        <v>642</v>
-      </c>
-      <c r="W67" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y67" s="22">
-        <v>7616</v>
-      </c>
-      <c r="Z67" s="22" t="s">
-        <v>723</v>
-      </c>
-      <c r="AA67" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U67" s="6">
+        <v>667</v>
+      </c>
+      <c r="V67" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="W67" s="27"/>
     </row>
     <row r="68" spans="5:27" ht="30" x14ac:dyDescent="0.25">
       <c r="E68" s="11">
@@ -19294,26 +18393,13 @@
         <v>341</v>
       </c>
       <c r="O68" s="27"/>
-      <c r="U68" s="22">
-        <v>6165</v>
-      </c>
-      <c r="V68" s="22" t="s">
-        <v>641</v>
-      </c>
-      <c r="W68" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y68" s="22">
-        <v>7617</v>
-      </c>
-      <c r="Z68" s="22" t="s">
-        <v>722</v>
-      </c>
-      <c r="AA68" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U68" s="6">
+        <v>668</v>
+      </c>
+      <c r="V68" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="W68" s="27"/>
     </row>
     <row r="69" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E69" s="11">
@@ -19330,26 +18416,13 @@
         <v>341</v>
       </c>
       <c r="O69" s="27"/>
-      <c r="U69" s="6">
-        <v>617</v>
-      </c>
-      <c r="V69" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="W69" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y69" s="10">
-        <v>762</v>
-      </c>
-      <c r="Z69" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="AA69" s="27">
-        <f>SUM(AA70:AA72)</f>
-        <v>0</v>
-      </c>
+      <c r="U69" s="45">
+        <v>67</v>
+      </c>
+      <c r="V69" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="W69" s="44"/>
     </row>
     <row r="70" spans="5:27" ht="30" x14ac:dyDescent="0.25">
       <c r="E70" s="11">
@@ -19367,25 +18440,12 @@
       </c>
       <c r="O70" s="27"/>
       <c r="U70" s="6">
-        <v>618</v>
+        <v>671</v>
       </c>
       <c r="V70" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="W70" s="27">
-        <f>SUM(W71:W73)</f>
-        <v>0</v>
-      </c>
-      <c r="Y70" s="22">
-        <v>7621</v>
-      </c>
-      <c r="Z70" s="22" t="s">
-        <v>720</v>
-      </c>
-      <c r="AA70" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="W70" s="27"/>
     </row>
     <row r="71" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E71" s="11">
@@ -19402,26 +18462,13 @@
         <v>924</v>
       </c>
       <c r="O71" s="27"/>
-      <c r="U71" s="22">
-        <v>6181</v>
-      </c>
-      <c r="V71" s="22" t="s">
-        <v>639</v>
-      </c>
-      <c r="W71" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y71" s="22">
-        <v>7626</v>
-      </c>
-      <c r="Z71" s="22" t="s">
-        <v>719</v>
-      </c>
-      <c r="AA71" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U71" s="6">
+        <v>672</v>
+      </c>
+      <c r="V71" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="W71" s="27"/>
     </row>
     <row r="72" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E72" s="11">
@@ -19438,26 +18485,13 @@
         <v>341</v>
       </c>
       <c r="O72" s="27"/>
-      <c r="U72" s="22">
-        <v>6183</v>
-      </c>
-      <c r="V72" s="22" t="s">
-        <v>638</v>
-      </c>
-      <c r="W72" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y72" s="22">
-        <v>7627</v>
-      </c>
-      <c r="Z72" s="22" t="s">
-        <v>718</v>
-      </c>
-      <c r="AA72" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U72" s="6">
+        <v>674</v>
+      </c>
+      <c r="V72" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="W72" s="27"/>
     </row>
     <row r="73" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E73" s="12">
@@ -19474,26 +18508,13 @@
         <v>340</v>
       </c>
       <c r="O73" s="27"/>
-      <c r="U73" s="22">
-        <v>6185</v>
-      </c>
-      <c r="V73" s="22" t="s">
-        <v>637</v>
-      </c>
-      <c r="W73" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y73" s="10">
-        <v>763</v>
-      </c>
-      <c r="Z73" s="10" t="s">
-        <v>717</v>
-      </c>
-      <c r="AA73" s="27">
-        <f>SUM(AA74:AA75)</f>
-        <v>0</v>
-      </c>
+      <c r="U73" s="6">
+        <v>675</v>
+      </c>
+      <c r="V73" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="W73" s="27"/>
     </row>
     <row r="74" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E74" s="39">
@@ -19511,25 +18532,12 @@
       </c>
       <c r="O74" s="31"/>
       <c r="U74" s="6">
-        <v>619</v>
+        <v>678</v>
       </c>
       <c r="V74" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="W74" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y74" s="22">
-        <v>7631</v>
-      </c>
-      <c r="Z74" s="22" t="s">
-        <v>716</v>
-      </c>
-      <c r="AA74" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="W74" s="27"/>
     </row>
     <row r="75" spans="5:27" ht="30" x14ac:dyDescent="0.25">
       <c r="E75" s="11">
@@ -19546,26 +18554,13 @@
         <v>333</v>
       </c>
       <c r="O75" s="27"/>
-      <c r="U75" s="45">
-        <v>62</v>
-      </c>
-      <c r="V75" s="45" t="s">
-        <v>635</v>
-      </c>
-      <c r="W75" s="44">
-        <f>SUM(W76,W79,W87,W96,W103,W108:W109,W115,W118)</f>
-        <v>0</v>
-      </c>
-      <c r="Y75" s="22">
-        <v>7638</v>
-      </c>
-      <c r="Z75" s="22" t="s">
-        <v>715</v>
-      </c>
-      <c r="AA75" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U75" s="9">
+        <v>68</v>
+      </c>
+      <c r="V75" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="W75" s="26"/>
     </row>
     <row r="76" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E76" s="11">
@@ -19582,26 +18577,13 @@
         <v>41</v>
       </c>
       <c r="O76" s="26"/>
-      <c r="U76" s="6">
-        <v>621</v>
-      </c>
-      <c r="V76" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="W76" s="27">
-        <f>SUM(W77:W78)</f>
-        <v>0</v>
-      </c>
-      <c r="Y76" s="10">
-        <v>764</v>
-      </c>
-      <c r="Z76" s="10" t="s">
-        <v>714</v>
-      </c>
-      <c r="AA76" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U76" s="39">
+        <v>681</v>
+      </c>
+      <c r="V76" s="39" t="s">
+        <v>943</v>
+      </c>
+      <c r="W76" s="40"/>
     </row>
     <row r="77" spans="5:27" ht="30" x14ac:dyDescent="0.25">
       <c r="E77" s="11">
@@ -19618,26 +18600,13 @@
         <v>332</v>
       </c>
       <c r="O77" s="40"/>
-      <c r="U77" s="22">
-        <v>6211</v>
-      </c>
-      <c r="V77" s="22" t="s">
-        <v>633</v>
-      </c>
-      <c r="W77" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y77" s="10">
-        <v>765</v>
-      </c>
-      <c r="Z77" s="10" t="s">
-        <v>713</v>
-      </c>
-      <c r="AA77" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U77" s="8">
+        <v>6811</v>
+      </c>
+      <c r="V77" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="W77" s="32"/>
     </row>
     <row r="78" spans="5:27" ht="30" x14ac:dyDescent="0.25">
       <c r="E78" s="11">
@@ -19654,26 +18623,13 @@
         <v>330</v>
       </c>
       <c r="O78" s="40"/>
-      <c r="U78" s="22">
-        <v>6214</v>
-      </c>
-      <c r="V78" s="22" t="s">
-        <v>632</v>
-      </c>
-      <c r="W78" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y78" s="10">
-        <v>766</v>
-      </c>
-      <c r="Z78" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="AA78" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U78" s="8">
+        <v>6812</v>
+      </c>
+      <c r="V78" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="W78" s="32"/>
     </row>
     <row r="79" spans="5:27" ht="30" x14ac:dyDescent="0.25">
       <c r="E79" s="11">
@@ -19690,26 +18646,13 @@
         <v>329</v>
       </c>
       <c r="O79" s="40"/>
-      <c r="U79" s="6">
-        <v>622</v>
-      </c>
-      <c r="V79" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="W79" s="27">
-        <f>SUM(W80:W86)</f>
-        <v>0</v>
-      </c>
-      <c r="Y79" s="10">
-        <v>767</v>
-      </c>
-      <c r="Z79" s="10" t="s">
-        <v>712</v>
-      </c>
-      <c r="AA79" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="U79" s="8">
+        <v>6815</v>
+      </c>
+      <c r="V79" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="W79" s="32"/>
     </row>
     <row r="80" spans="5:27" x14ac:dyDescent="0.25">
       <c r="E80" s="12">
@@ -19726,28 +18669,15 @@
         <v>836</v>
       </c>
       <c r="O80" s="32"/>
-      <c r="U80" s="22">
-        <v>6221</v>
-      </c>
-      <c r="V80" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="W80" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y80" s="10">
-        <v>768</v>
-      </c>
-      <c r="Z80" s="10" t="s">
-        <v>711</v>
-      </c>
-      <c r="AA80" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="U80" s="8">
+        <v>6816</v>
+      </c>
+      <c r="V80" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="W80" s="32"/>
+    </row>
+    <row r="81" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E81" s="10">
         <v>282</v>
       </c>
@@ -19762,28 +18692,15 @@
         <v>328</v>
       </c>
       <c r="O81" s="27"/>
-      <c r="U81" s="22">
-        <v>6222</v>
-      </c>
-      <c r="V81" s="22" t="s">
-        <v>629</v>
-      </c>
-      <c r="W81" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y81" s="45">
-        <v>77</v>
-      </c>
-      <c r="Z81" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA81" s="44">
-        <f>SUM(AA82,AA89:AA90,AA93,AA98:AA99)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="U81" s="8">
+        <v>6817</v>
+      </c>
+      <c r="V81" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="W81" s="32"/>
+    </row>
+    <row r="82" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E82" s="9">
         <v>29</v>
       </c>
@@ -19798,28 +18715,15 @@
         <v>837</v>
       </c>
       <c r="O82" s="26"/>
-      <c r="U82" s="22">
-        <v>6224</v>
-      </c>
-      <c r="V82" s="22" t="s">
-        <v>628</v>
-      </c>
-      <c r="W82" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y82" s="10">
-        <v>771</v>
-      </c>
-      <c r="Z82" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="AA82" s="27">
-        <f>SUM(AA83:AA88)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="U82" s="7">
+        <v>68173</v>
+      </c>
+      <c r="V82" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="W82" s="38"/>
+    </row>
+    <row r="83" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E83" s="39">
         <v>290</v>
       </c>
@@ -19834,28 +18738,15 @@
         <v>838</v>
       </c>
       <c r="O83" s="40"/>
-      <c r="U83" s="22">
-        <v>6225</v>
-      </c>
-      <c r="V83" s="22" t="s">
-        <v>627</v>
-      </c>
-      <c r="W83" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y83" s="22">
-        <v>7711</v>
-      </c>
-      <c r="Z83" s="22" t="s">
-        <v>709</v>
-      </c>
-      <c r="AA83" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="U83" s="7">
+        <v>68174</v>
+      </c>
+      <c r="V83" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="W83" s="38"/>
+    </row>
+    <row r="84" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E84" s="11">
         <v>2905</v>
       </c>
@@ -19870,28 +18761,15 @@
         <v>839</v>
       </c>
       <c r="O84" s="27"/>
-      <c r="U84" s="22">
-        <v>6226</v>
-      </c>
-      <c r="V84" s="22" t="s">
-        <v>626</v>
-      </c>
-      <c r="W84" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y84" s="22">
-        <v>7713</v>
-      </c>
-      <c r="Z84" s="22" t="s">
-        <v>708</v>
-      </c>
-      <c r="AA84" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="U84" s="39">
+        <v>686</v>
+      </c>
+      <c r="V84" s="39" t="s">
+        <v>944</v>
+      </c>
+      <c r="W84" s="40"/>
+    </row>
+    <row r="85" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E85" s="11">
         <v>2906</v>
       </c>
@@ -19906,28 +18784,15 @@
         <v>325</v>
       </c>
       <c r="O85" s="32"/>
-      <c r="U85" s="22">
-        <v>6227</v>
-      </c>
-      <c r="V85" s="22" t="s">
-        <v>625</v>
-      </c>
-      <c r="W85" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y85" s="22">
-        <v>7714</v>
-      </c>
-      <c r="Z85" s="22" t="s">
-        <v>707</v>
-      </c>
-      <c r="AA85" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="U85" s="8">
+        <v>6861</v>
+      </c>
+      <c r="V85" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="W85" s="32"/>
+    </row>
+    <row r="86" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E86" s="11">
         <v>2907</v>
       </c>
@@ -19942,28 +18807,15 @@
         <v>324</v>
       </c>
       <c r="O86" s="32"/>
-      <c r="U86" s="22">
-        <v>6228</v>
-      </c>
-      <c r="V86" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="W86" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y86" s="22">
-        <v>7715</v>
-      </c>
-      <c r="Z86" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA86" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="U86" s="8">
+        <v>6865</v>
+      </c>
+      <c r="V86" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="W86" s="32"/>
+    </row>
+    <row r="87" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E87" s="11">
         <v>2908</v>
       </c>
@@ -19978,28 +18830,15 @@
         <v>323</v>
       </c>
       <c r="O87" s="32"/>
-      <c r="U87" s="6">
-        <v>623</v>
-      </c>
-      <c r="V87" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="W87" s="27">
-        <f>SUM(W88:W95)</f>
-        <v>0</v>
-      </c>
-      <c r="Y87" s="22">
-        <v>7717</v>
-      </c>
-      <c r="Z87" s="22" t="s">
-        <v>706</v>
-      </c>
-      <c r="AA87" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="U87" s="8">
+        <v>6866</v>
+      </c>
+      <c r="V87" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="W87" s="32"/>
+    </row>
+    <row r="88" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E88" s="12">
         <v>29081</v>
       </c>
@@ -20014,28 +18853,15 @@
         <v>840</v>
       </c>
       <c r="O88" s="40"/>
-      <c r="U88" s="22">
-        <v>6231</v>
-      </c>
-      <c r="V88" s="22" t="s">
-        <v>623</v>
-      </c>
-      <c r="W88" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y88" s="22">
-        <v>7718</v>
-      </c>
-      <c r="Z88" s="22" t="s">
-        <v>705</v>
-      </c>
-      <c r="AA88" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="5:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="U88" s="8">
+        <v>6868</v>
+      </c>
+      <c r="V88" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="W88" s="32"/>
+    </row>
+    <row r="89" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E89" s="39">
         <v>291</v>
       </c>
@@ -20043,28 +18869,15 @@
         <v>789</v>
       </c>
       <c r="G89" s="40"/>
-      <c r="U89" s="22">
-        <v>6232</v>
-      </c>
-      <c r="V89" s="22" t="s">
-        <v>622</v>
-      </c>
-      <c r="W89" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y89" s="10">
-        <v>772</v>
-      </c>
-      <c r="Z89" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="AA89" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="U89" s="39">
+        <v>687</v>
+      </c>
+      <c r="V89" s="39" t="s">
+        <v>862</v>
+      </c>
+      <c r="W89" s="40"/>
+    </row>
+    <row r="90" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E90" s="12">
         <v>29187</v>
       </c>
@@ -20072,28 +18885,15 @@
         <v>791</v>
       </c>
       <c r="G90" s="38"/>
-      <c r="U90" s="22">
-        <v>6233</v>
-      </c>
-      <c r="V90" s="22" t="s">
-        <v>621</v>
-      </c>
-      <c r="W90" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y90" s="10">
-        <v>774</v>
-      </c>
-      <c r="Z90" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="AA90" s="27">
-        <f>SUM(AA91:AA92)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="U90" s="8">
+        <v>6871</v>
+      </c>
+      <c r="V90" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="W90" s="32"/>
+    </row>
+    <row r="91" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E91" s="10">
         <v>292</v>
       </c>
@@ -20101,28 +18901,15 @@
         <v>274</v>
       </c>
       <c r="G91" s="27"/>
-      <c r="U91" s="22">
-        <v>6234</v>
-      </c>
-      <c r="V91" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="W91" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y91" s="22">
-        <v>7741</v>
-      </c>
-      <c r="Z91" s="22" t="s">
-        <v>857</v>
-      </c>
-      <c r="AA91" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="U91" s="8">
+        <v>6872</v>
+      </c>
+      <c r="V91" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="W91" s="32"/>
+    </row>
+    <row r="92" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E92" s="10">
         <v>293</v>
       </c>
@@ -20130,28 +18917,15 @@
         <v>275</v>
       </c>
       <c r="G92" s="27"/>
-      <c r="U92" s="22">
-        <v>6235</v>
-      </c>
-      <c r="V92" s="22" t="s">
-        <v>619</v>
-      </c>
-      <c r="W92" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y92" s="22">
-        <v>7742</v>
-      </c>
-      <c r="Z92" s="22" t="s">
-        <v>871</v>
-      </c>
-      <c r="AA92" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="U92" s="8">
+        <v>6873</v>
+      </c>
+      <c r="V92" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="W92" s="32"/>
+    </row>
+    <row r="93" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E93" s="11">
         <v>2931</v>
       </c>
@@ -20159,28 +18933,15 @@
         <v>276</v>
       </c>
       <c r="G93" s="32"/>
-      <c r="U93" s="22">
-        <v>6236</v>
-      </c>
-      <c r="V93" s="22" t="s">
-        <v>618</v>
-      </c>
-      <c r="W93" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y93" s="10">
-        <v>775</v>
-      </c>
-      <c r="Z93" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="AA93" s="27">
-        <f>SUM(AA94:AA97)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="U93" s="8">
+        <v>6874</v>
+      </c>
+      <c r="V93" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="W93" s="32"/>
+    </row>
+    <row r="94" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E94" s="11">
         <v>2932</v>
       </c>
@@ -20188,28 +18949,15 @@
         <v>233</v>
       </c>
       <c r="G94" s="32"/>
-      <c r="U94" s="22">
-        <v>6237</v>
-      </c>
-      <c r="V94" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="W94" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y94" s="22">
-        <v>7751</v>
-      </c>
-      <c r="Z94" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="AA94" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="5:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="U94" s="8">
+        <v>6875</v>
+      </c>
+      <c r="V94" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="W94" s="32"/>
+    </row>
+    <row r="95" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E95" s="10">
         <v>296</v>
       </c>
@@ -20217,28 +18965,15 @@
         <v>277</v>
       </c>
       <c r="G95" s="27"/>
-      <c r="U95" s="22">
-        <v>6238</v>
-      </c>
-      <c r="V95" s="22" t="s">
-        <v>935</v>
-      </c>
-      <c r="W95" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y95" s="22">
-        <v>7752</v>
-      </c>
-      <c r="Z95" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA95" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="U95" s="8">
+        <v>6876</v>
+      </c>
+      <c r="V95" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="W95" s="32"/>
+    </row>
+    <row r="96" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E96" s="11">
         <v>2961</v>
       </c>
@@ -20246,28 +18981,15 @@
         <v>238</v>
       </c>
       <c r="G96" s="32"/>
-      <c r="U96" s="6">
-        <v>624</v>
-      </c>
-      <c r="V96" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="W96" s="27">
-        <f>SUM(W97:W102)</f>
-        <v>0</v>
-      </c>
-      <c r="Y96" s="22">
-        <v>7756</v>
-      </c>
-      <c r="Z96" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="AA96" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="U96" s="9">
+        <v>69</v>
+      </c>
+      <c r="V96" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="W96" s="26"/>
+    </row>
+    <row r="97" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E97" s="11">
         <v>2966</v>
       </c>
@@ -20275,28 +18997,15 @@
         <v>278</v>
       </c>
       <c r="G97" s="32"/>
-      <c r="U97" s="22">
-        <v>6241</v>
-      </c>
-      <c r="V97" s="22" t="s">
-        <v>615</v>
-      </c>
-      <c r="W97" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y97" s="22">
-        <v>7758</v>
-      </c>
-      <c r="Z97" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA97" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="5:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="U97" s="39">
+        <v>691</v>
+      </c>
+      <c r="V97" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="W97" s="40"/>
+    </row>
+    <row r="98" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E98" s="11">
         <v>2967</v>
       </c>
@@ -20304,28 +19013,15 @@
         <v>792</v>
       </c>
       <c r="G98" s="32"/>
-      <c r="U98" s="22">
-        <v>6242</v>
-      </c>
-      <c r="V98" s="22" t="s">
-        <v>614</v>
-      </c>
-      <c r="W98" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y98" s="10">
-        <v>777</v>
-      </c>
-      <c r="Z98" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="AA98" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="5:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="U98" s="39">
+        <v>695</v>
+      </c>
+      <c r="V98" s="39" t="s">
+        <v>498</v>
+      </c>
+      <c r="W98" s="40"/>
+    </row>
+    <row r="99" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E99" s="11">
         <v>2968</v>
       </c>
@@ -20333,28 +19029,15 @@
         <v>793</v>
       </c>
       <c r="G99" s="32"/>
-      <c r="U99" s="22">
-        <v>6243</v>
-      </c>
-      <c r="V99" s="22" t="s">
-        <v>613</v>
-      </c>
-      <c r="W99" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y99" s="10">
-        <v>778</v>
-      </c>
-      <c r="Z99" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="AA99" s="27">
-        <f>SUM(AA100:AA103)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="U99" s="6">
+        <v>696</v>
+      </c>
+      <c r="V99" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="W99" s="27"/>
+    </row>
+    <row r="100" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E100" s="39">
         <v>297</v>
       </c>
@@ -20362,28 +19045,15 @@
         <v>794</v>
       </c>
       <c r="G100" s="40"/>
-      <c r="U100" s="22">
-        <v>6244</v>
-      </c>
-      <c r="V100" s="22" t="s">
-        <v>612</v>
-      </c>
-      <c r="W100" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y100" s="22">
-        <v>7781</v>
-      </c>
-      <c r="Z100" s="22" t="s">
-        <v>701</v>
-      </c>
-      <c r="AA100" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="5:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="U100" s="6">
+        <v>698</v>
+      </c>
+      <c r="V100" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="W100" s="27"/>
+    </row>
+    <row r="101" spans="5:23" ht="45" x14ac:dyDescent="0.25">
       <c r="E101" s="11">
         <v>2971</v>
       </c>
@@ -20391,28 +19061,15 @@
         <v>795</v>
       </c>
       <c r="G101" s="32"/>
-      <c r="U101" s="22">
-        <v>6247</v>
-      </c>
-      <c r="V101" s="22" t="s">
-        <v>611</v>
-      </c>
-      <c r="W101" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y101" s="22">
-        <v>7782</v>
-      </c>
-      <c r="Z101" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="AA101" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="U101" s="8">
+        <v>6981</v>
+      </c>
+      <c r="V101" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="W101" s="32"/>
+    </row>
+    <row r="102" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E102" s="11">
         <v>2972</v>
       </c>
@@ -20420,28 +19077,15 @@
         <v>796</v>
       </c>
       <c r="G102" s="32"/>
-      <c r="U102" s="22">
-        <v>6248</v>
-      </c>
-      <c r="V102" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="W102" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y102" s="22">
-        <v>7783</v>
-      </c>
-      <c r="Z102" s="22" t="s">
-        <v>700</v>
-      </c>
-      <c r="AA102" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="U102" s="8">
+        <v>6989</v>
+      </c>
+      <c r="V102" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="W102" s="32"/>
+    </row>
+    <row r="103" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E103" s="11">
         <v>2973</v>
       </c>
@@ -20449,28 +19093,15 @@
         <v>250</v>
       </c>
       <c r="G103" s="32"/>
-      <c r="U103" s="6">
-        <v>625</v>
-      </c>
-      <c r="V103" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="W103" s="27">
-        <f>SUM(W104:W107)</f>
-        <v>0</v>
-      </c>
-      <c r="Y103" s="22">
-        <v>7788</v>
-      </c>
-      <c r="Z103" s="22" t="s">
+      <c r="U103" s="39">
         <v>699</v>
       </c>
-      <c r="AA103" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="V103" s="39" t="s">
+        <v>490</v>
+      </c>
+      <c r="W103" s="40"/>
+    </row>
+    <row r="104" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E104" s="11">
         <v>2974</v>
       </c>
@@ -20478,28 +19109,8 @@
         <v>797</v>
       </c>
       <c r="G104" s="32"/>
-      <c r="U104" s="22">
-        <v>6251</v>
-      </c>
-      <c r="V104" s="22" t="s">
-        <v>608</v>
-      </c>
-      <c r="W104" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y104" s="9">
-        <v>78</v>
-      </c>
-      <c r="Z104" s="9" t="s">
-        <v>872</v>
-      </c>
-      <c r="AA104" s="26">
-        <f>SUM(AA105,AA116,AA121)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="5:27" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E105" s="11">
         <v>2975</v>
       </c>
@@ -20507,28 +19118,8 @@
         <v>798</v>
       </c>
       <c r="G105" s="32"/>
-      <c r="U105" s="22">
-        <v>6255</v>
-      </c>
-      <c r="V105" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="W105" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y105" s="39">
-        <v>781</v>
-      </c>
-      <c r="Z105" s="39" t="s">
-        <v>873</v>
-      </c>
-      <c r="AA105" s="40">
-        <f>SUM(AA106,AA109:AA110,AA113)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="5:27" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="5:23" ht="30" x14ac:dyDescent="0.25">
       <c r="E106" s="11">
         <v>2976</v>
       </c>
@@ -20536,28 +19127,8 @@
         <v>799</v>
       </c>
       <c r="G106" s="32"/>
-      <c r="U106" s="22">
-        <v>6256</v>
-      </c>
-      <c r="V106" s="22" t="s">
-        <v>606</v>
-      </c>
-      <c r="W106" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y106" s="11">
-        <v>7811</v>
-      </c>
-      <c r="Z106" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="AA106" s="32">
-        <f>SUM(AA107:AA108)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="5:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E107" s="12">
         <v>29787</v>
       </c>
@@ -20565,2158 +19136,6 @@
         <v>800</v>
       </c>
       <c r="G107" s="38"/>
-      <c r="U107" s="22">
-        <v>6257</v>
-      </c>
-      <c r="V107" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="W107" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y107" s="23">
-        <v>78111</v>
-      </c>
-      <c r="Z107" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="AA107" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="U108" s="6">
-        <v>626</v>
-      </c>
-      <c r="V108" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="W108" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y108" s="23">
-        <v>78112</v>
-      </c>
-      <c r="Z108" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA108" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="U109" s="6">
-        <v>627</v>
-      </c>
-      <c r="V109" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="W109" s="27">
-        <f>SUM(W110:W114)</f>
-        <v>0</v>
-      </c>
-      <c r="Y109" s="11">
-        <v>7815</v>
-      </c>
-      <c r="Z109" s="11" t="s">
-        <v>874</v>
-      </c>
-      <c r="AA109" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="U110" s="22">
-        <v>6271</v>
-      </c>
-      <c r="V110" s="22" t="s">
-        <v>849</v>
-      </c>
-      <c r="W110" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y110" s="11">
-        <v>7816</v>
-      </c>
-      <c r="Z110" s="11" t="s">
-        <v>697</v>
-      </c>
-      <c r="AA110" s="32">
-        <f>SUM(AA111:AA112)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="U111" s="22">
-        <v>6272</v>
-      </c>
-      <c r="V111" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="W111" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y111" s="23">
-        <v>78161</v>
-      </c>
-      <c r="Z111" s="23" t="s">
-        <v>696</v>
-      </c>
-      <c r="AA111" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="U112" s="22">
-        <v>6275</v>
-      </c>
-      <c r="V112" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="W112" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y112" s="23">
-        <v>78162</v>
-      </c>
-      <c r="Z112" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA112" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U113" s="22">
-        <v>6276</v>
-      </c>
-      <c r="V113" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="W113" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y113" s="11">
-        <v>7817</v>
-      </c>
-      <c r="Z113" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="AA113" s="32">
-        <f>SUM(AA114:AA115)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U114" s="22">
-        <v>6278</v>
-      </c>
-      <c r="V114" s="22" t="s">
-        <v>599</v>
-      </c>
-      <c r="W114" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y114" s="23">
-        <v>78173</v>
-      </c>
-      <c r="Z114" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="AA114" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U115" s="6">
-        <v>628</v>
-      </c>
-      <c r="V115" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="W115" s="27">
-        <f>SUM(W116:W117)</f>
-        <v>0</v>
-      </c>
-      <c r="Y115" s="23">
-        <v>78174</v>
-      </c>
-      <c r="Z115" s="23" t="s">
-        <v>506</v>
-      </c>
-      <c r="AA115" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U116" s="22">
-        <v>6281</v>
-      </c>
-      <c r="V116" s="22" t="s">
-        <v>936</v>
-      </c>
-      <c r="W116" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y116" s="39">
-        <v>786</v>
-      </c>
-      <c r="Z116" s="39" t="s">
-        <v>875</v>
-      </c>
-      <c r="AA116" s="40">
-        <f>SUM(AA117:AA118)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U117" s="22">
-        <v>6284</v>
-      </c>
-      <c r="V117" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="W117" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y117" s="11">
-        <v>7865</v>
-      </c>
-      <c r="Z117" s="11" t="s">
-        <v>876</v>
-      </c>
-      <c r="AA117" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U118" s="6">
-        <v>629</v>
-      </c>
-      <c r="V118" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="W118" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y118" s="11">
-        <v>7866</v>
-      </c>
-      <c r="Z118" s="11" t="s">
-        <v>877</v>
-      </c>
-      <c r="AA118" s="32">
-        <f>SUM(AA119:AA120)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U119" s="45">
-        <v>63</v>
-      </c>
-      <c r="V119" s="45" t="s">
-        <v>595</v>
-      </c>
-      <c r="W119" s="44">
-        <f>SUM(W120,W126,W133,W144)</f>
-        <v>0</v>
-      </c>
-      <c r="Y119" s="23">
-        <v>78662</v>
-      </c>
-      <c r="Z119" s="23" t="s">
-        <v>504</v>
-      </c>
-      <c r="AA119" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U120" s="6">
-        <v>631</v>
-      </c>
-      <c r="V120" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="W120" s="27">
-        <f>SUM(W121:W125)</f>
-        <v>0</v>
-      </c>
-      <c r="Y120" s="23">
-        <v>78665</v>
-      </c>
-      <c r="Z120" s="23" t="s">
-        <v>694</v>
-      </c>
-      <c r="AA120" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U121" s="22">
-        <v>6311</v>
-      </c>
-      <c r="V121" s="22" t="s">
-        <v>593</v>
-      </c>
-      <c r="W121" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y121" s="39">
-        <v>787</v>
-      </c>
-      <c r="Z121" s="39" t="s">
-        <v>878</v>
-      </c>
-      <c r="AA121" s="40">
-        <f>SUM(AA122,AA126:AA129)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U122" s="22">
-        <v>6312</v>
-      </c>
-      <c r="V122" s="22" t="s">
-        <v>592</v>
-      </c>
-      <c r="W122" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y122" s="11">
-        <v>7872</v>
-      </c>
-      <c r="Z122" s="11" t="s">
-        <v>693</v>
-      </c>
-      <c r="AA122" s="32">
-        <f>SUM(AA123:AA125)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U123" s="22">
-        <v>6313</v>
-      </c>
-      <c r="V123" s="22" t="s">
-        <v>587</v>
-      </c>
-      <c r="W123" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y123" s="23">
-        <v>78725</v>
-      </c>
-      <c r="Z123" s="23" t="s">
-        <v>692</v>
-      </c>
-      <c r="AA123" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U124" s="22">
-        <v>6314</v>
-      </c>
-      <c r="V124" s="22" t="s">
-        <v>591</v>
-      </c>
-      <c r="W124" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y124" s="23">
-        <v>78726</v>
-      </c>
-      <c r="Z124" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA124" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U125" s="22">
-        <v>6318</v>
-      </c>
-      <c r="V125" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="W125" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y125" s="23">
-        <v>78727</v>
-      </c>
-      <c r="Z125" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA125" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U126" s="6">
-        <v>633</v>
-      </c>
-      <c r="V126" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="W126" s="27">
-        <f>SUM(W127:W132)</f>
-        <v>0</v>
-      </c>
-      <c r="Y126" s="11">
-        <v>7873</v>
-      </c>
-      <c r="Z126" s="11" t="s">
-        <v>691</v>
-      </c>
-      <c r="AA126" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U127" s="22">
-        <v>6331</v>
-      </c>
-      <c r="V127" s="22" t="s">
-        <v>589</v>
-      </c>
-      <c r="W127" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y127" s="11">
-        <v>7874</v>
-      </c>
-      <c r="Z127" s="11" t="s">
-        <v>690</v>
-      </c>
-      <c r="AA127" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U128" s="22">
-        <v>6332</v>
-      </c>
-      <c r="V128" s="22" t="s">
-        <v>588</v>
-      </c>
-      <c r="W128" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y128" s="11">
-        <v>7875</v>
-      </c>
-      <c r="Z128" s="11" t="s">
-        <v>879</v>
-      </c>
-      <c r="AA128" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U129" s="22">
-        <v>6333</v>
-      </c>
-      <c r="V129" s="22" t="s">
-        <v>587</v>
-      </c>
-      <c r="W129" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y129" s="11">
-        <v>7876</v>
-      </c>
-      <c r="Z129" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="AA129" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U130" s="22">
-        <v>6334</v>
-      </c>
-      <c r="V130" s="22" t="s">
-        <v>586</v>
-      </c>
-      <c r="W130" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y130" s="45">
-        <v>79</v>
-      </c>
-      <c r="Z130" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA130" s="44">
-        <f>SUM(AA131:AA133)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U131" s="22">
-        <v>6335</v>
-      </c>
-      <c r="V131" s="22" t="s">
-        <v>585</v>
-      </c>
-      <c r="W131" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y131" s="10">
-        <v>791</v>
-      </c>
-      <c r="Z131" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="AA131" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U132" s="22">
-        <v>6338</v>
-      </c>
-      <c r="V132" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="W132" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="Y132" s="10">
-        <v>796</v>
-      </c>
-      <c r="Z132" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="AA132" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U133" s="6">
-        <v>635</v>
-      </c>
-      <c r="V133" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="W133" s="27">
-        <f>SUM(W134,W139:W141,W143)</f>
-        <v>0</v>
-      </c>
-      <c r="Y133" s="10">
-        <v>797</v>
-      </c>
-      <c r="Z133" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="AA133" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U134" s="22">
-        <v>6351</v>
-      </c>
-      <c r="V134" s="22" t="s">
-        <v>583</v>
-      </c>
-      <c r="W134" s="28">
-        <f>SUM(W135:W138)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U135" s="23">
-        <v>63511</v>
-      </c>
-      <c r="V135" s="23" t="s">
-        <v>850</v>
-      </c>
-      <c r="W135" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U136" s="23">
-        <v>63512</v>
-      </c>
-      <c r="V136" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="W136" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U137" s="23">
-        <v>63513</v>
-      </c>
-      <c r="V137" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="W137" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U138" s="23">
-        <v>63514</v>
-      </c>
-      <c r="V138" s="23" t="s">
-        <v>580</v>
-      </c>
-      <c r="W138" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U139" s="22">
-        <v>6352</v>
-      </c>
-      <c r="V139" s="22" t="s">
-        <v>579</v>
-      </c>
-      <c r="W139" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U140" s="22">
-        <v>6353</v>
-      </c>
-      <c r="V140" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="W140" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U141" s="22">
-        <v>6354</v>
-      </c>
-      <c r="V141" s="22" t="s">
-        <v>577</v>
-      </c>
-      <c r="W141" s="28">
-        <f>SUM(W142)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U142" s="23">
-        <v>63541</v>
-      </c>
-      <c r="V142" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="W142" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U143" s="8">
-        <v>6358</v>
-      </c>
-      <c r="V143" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="W143" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="21:27" x14ac:dyDescent="0.25">
-      <c r="U144" s="6">
-        <v>637</v>
-      </c>
-      <c r="V144" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="W144" s="27">
-        <f>SUM(W145:W148)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U145" s="22">
-        <v>6371</v>
-      </c>
-      <c r="V145" s="22" t="s">
-        <v>573</v>
-      </c>
-      <c r="W145" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U146" s="22">
-        <v>6372</v>
-      </c>
-      <c r="V146" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="W146" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U147" s="22">
-        <v>6374</v>
-      </c>
-      <c r="V147" s="22" t="s">
-        <v>571</v>
-      </c>
-      <c r="W147" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U148" s="22">
-        <v>6378</v>
-      </c>
-      <c r="V148" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="W148" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U149" s="9">
-        <v>64</v>
-      </c>
-      <c r="V149" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="W149" s="26">
-        <f>SUM(W150,W156:W157,W163:W164,W170)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U150" s="39">
-        <v>641</v>
-      </c>
-      <c r="V150" s="39" t="s">
-        <v>569</v>
-      </c>
-      <c r="W150" s="40">
-        <f>SUM(W151:W155)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U151" s="22">
-        <v>6411</v>
-      </c>
-      <c r="V151" s="22" t="s">
-        <v>568</v>
-      </c>
-      <c r="W151" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U152" s="22">
-        <v>6412</v>
-      </c>
-      <c r="V152" s="22" t="s">
-        <v>567</v>
-      </c>
-      <c r="W152" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U153" s="22">
-        <v>6413</v>
-      </c>
-      <c r="V153" s="22" t="s">
-        <v>566</v>
-      </c>
-      <c r="W153" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U154" s="22">
-        <v>6414</v>
-      </c>
-      <c r="V154" s="22" t="s">
-        <v>565</v>
-      </c>
-      <c r="W154" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U155" s="22">
-        <v>6415</v>
-      </c>
-      <c r="V155" s="22" t="s">
-        <v>564</v>
-      </c>
-      <c r="W155" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U156" s="39">
-        <v>644</v>
-      </c>
-      <c r="V156" s="39" t="s">
-        <v>563</v>
-      </c>
-      <c r="W156" s="40">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U157" s="39">
-        <v>645</v>
-      </c>
-      <c r="V157" s="39" t="s">
-        <v>562</v>
-      </c>
-      <c r="W157" s="40">
-        <f>SUM(W158:W162)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U158" s="22">
-        <v>6451</v>
-      </c>
-      <c r="V158" s="22" t="s">
-        <v>561</v>
-      </c>
-      <c r="W158" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U159" s="22">
-        <v>6452</v>
-      </c>
-      <c r="V159" s="22" t="s">
-        <v>560</v>
-      </c>
-      <c r="W159" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U160" s="22">
-        <v>6453</v>
-      </c>
-      <c r="V160" s="22" t="s">
-        <v>559</v>
-      </c>
-      <c r="W160" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U161" s="22">
-        <v>6454</v>
-      </c>
-      <c r="V161" s="22" t="s">
-        <v>558</v>
-      </c>
-      <c r="W161" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U162" s="22">
-        <v>6458</v>
-      </c>
-      <c r="V162" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="W162" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U163" s="39">
-        <v>646</v>
-      </c>
-      <c r="V163" s="39" t="s">
-        <v>556</v>
-      </c>
-      <c r="W163" s="40">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U164" s="6">
-        <v>647</v>
-      </c>
-      <c r="V164" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="W164" s="27">
-        <f>SUM(W165:W169)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U165" s="22">
-        <v>6471</v>
-      </c>
-      <c r="V165" s="22" t="s">
-        <v>554</v>
-      </c>
-      <c r="W165" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U166" s="22">
-        <v>6472</v>
-      </c>
-      <c r="V166" s="22" t="s">
-        <v>553</v>
-      </c>
-      <c r="W166" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U167" s="22">
-        <v>6473</v>
-      </c>
-      <c r="V167" s="22" t="s">
-        <v>552</v>
-      </c>
-      <c r="W167" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U168" s="22">
-        <v>6474</v>
-      </c>
-      <c r="V168" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="W168" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U169" s="22">
-        <v>6475</v>
-      </c>
-      <c r="V169" s="22" t="s">
-        <v>550</v>
-      </c>
-      <c r="W169" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U170" s="6">
-        <v>648</v>
-      </c>
-      <c r="V170" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="W170" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U171" s="45">
-        <v>65</v>
-      </c>
-      <c r="V171" s="45" t="s">
-        <v>548</v>
-      </c>
-      <c r="W171" s="44">
-        <f>SUM(W172,W176:W177,W180,W183:W184)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U172" s="6">
-        <v>651</v>
-      </c>
-      <c r="V172" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="W172" s="27">
-        <f>SUM(W173:W175)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U173" s="22">
-        <v>6511</v>
-      </c>
-      <c r="V173" s="22" t="s">
-        <v>546</v>
-      </c>
-      <c r="W173" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U174" s="22">
-        <v>6516</v>
-      </c>
-      <c r="V174" s="22" t="s">
-        <v>545</v>
-      </c>
-      <c r="W174" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U175" s="22">
-        <v>6518</v>
-      </c>
-      <c r="V175" s="22" t="s">
-        <v>544</v>
-      </c>
-      <c r="W175" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U176" s="6">
-        <v>653</v>
-      </c>
-      <c r="V176" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="W176" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U177" s="6">
-        <v>654</v>
-      </c>
-      <c r="V177" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="W177" s="27">
-        <f>SUM(W178:W179)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U178" s="22">
-        <v>6541</v>
-      </c>
-      <c r="V178" s="22" t="s">
-        <v>541</v>
-      </c>
-      <c r="W178" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U179" s="22">
-        <v>6544</v>
-      </c>
-      <c r="V179" s="22" t="s">
-        <v>540</v>
-      </c>
-      <c r="W179" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U180" s="6">
-        <v>655</v>
-      </c>
-      <c r="V180" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="W180" s="27">
-        <f>SUM(W181:W182)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U181" s="22">
-        <v>6551</v>
-      </c>
-      <c r="V181" s="22" t="s">
-        <v>937</v>
-      </c>
-      <c r="W181" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U182" s="22">
-        <v>6555</v>
-      </c>
-      <c r="V182" s="22" t="s">
-        <v>938</v>
-      </c>
-      <c r="W182" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U183" s="6">
-        <v>656</v>
-      </c>
-      <c r="V183" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="W183" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U184" s="6">
-        <v>658</v>
-      </c>
-      <c r="V184" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="W184" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U185" s="45">
-        <v>66</v>
-      </c>
-      <c r="V185" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="W185" s="44">
-        <f>SUM(W186,W197:W201)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U186" s="6">
-        <v>661</v>
-      </c>
-      <c r="V186" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="W186" s="27">
-        <f>SUM(W187,W190:W194)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U187" s="22">
-        <v>6611</v>
-      </c>
-      <c r="V187" s="22" t="s">
-        <v>536</v>
-      </c>
-      <c r="W187" s="28">
-        <f>SUM(W188:W189)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U188" s="23">
-        <v>66116</v>
-      </c>
-      <c r="V188" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="W188" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U189" s="23">
-        <v>66117</v>
-      </c>
-      <c r="V189" s="23" t="s">
-        <v>534</v>
-      </c>
-      <c r="W189" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U190" s="22">
-        <v>6612</v>
-      </c>
-      <c r="V190" s="22" t="s">
-        <v>852</v>
-      </c>
-      <c r="W190" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U191" s="22">
-        <v>6615</v>
-      </c>
-      <c r="V191" s="22" t="s">
-        <v>533</v>
-      </c>
-      <c r="W191" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U192" s="22">
-        <v>6616</v>
-      </c>
-      <c r="V192" s="22" t="s">
-        <v>939</v>
-      </c>
-      <c r="W192" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U193" s="22">
-        <v>6617</v>
-      </c>
-      <c r="V193" s="22" t="s">
-        <v>941</v>
-      </c>
-      <c r="W193" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U194" s="22">
-        <v>6618</v>
-      </c>
-      <c r="V194" s="22" t="s">
-        <v>940</v>
-      </c>
-      <c r="W194" s="28">
-        <f>SUM(W195:W196)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U195" s="23">
-        <v>66181</v>
-      </c>
-      <c r="V195" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="W195" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U196" s="23">
-        <v>66188</v>
-      </c>
-      <c r="V196" s="23" t="s">
-        <v>531</v>
-      </c>
-      <c r="W196" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U197" s="6">
-        <v>664</v>
-      </c>
-      <c r="V197" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="W197" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U198" s="6">
-        <v>665</v>
-      </c>
-      <c r="V198" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="W198" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U199" s="6">
-        <v>666</v>
-      </c>
-      <c r="V199" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="W199" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U200" s="6">
-        <v>667</v>
-      </c>
-      <c r="V200" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="W200" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U201" s="6">
-        <v>668</v>
-      </c>
-      <c r="V201" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="W201" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U202" s="45">
-        <v>67</v>
-      </c>
-      <c r="V202" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="W202" s="44">
-        <f>SUM(W203,W211:W212,W215,W220)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U203" s="6">
-        <v>671</v>
-      </c>
-      <c r="V203" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="W203" s="27">
-        <f>SUM(W204:W210)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U204" s="22">
-        <v>6711</v>
-      </c>
-      <c r="V204" s="22" t="s">
-        <v>942</v>
-      </c>
-      <c r="W204" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U205" s="22">
-        <v>6712</v>
-      </c>
-      <c r="V205" s="22" t="s">
-        <v>525</v>
-      </c>
-      <c r="W205" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U206" s="22">
-        <v>6713</v>
-      </c>
-      <c r="V206" s="22" t="s">
-        <v>524</v>
-      </c>
-      <c r="W206" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U207" s="22">
-        <v>6714</v>
-      </c>
-      <c r="V207" s="22" t="s">
-        <v>523</v>
-      </c>
-      <c r="W207" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U208" s="22">
-        <v>6715</v>
-      </c>
-      <c r="V208" s="22" t="s">
-        <v>522</v>
-      </c>
-      <c r="W208" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U209" s="22">
-        <v>6717</v>
-      </c>
-      <c r="V209" s="22" t="s">
-        <v>854</v>
-      </c>
-      <c r="W209" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U210" s="22">
-        <v>6718</v>
-      </c>
-      <c r="V210" s="22" t="s">
-        <v>521</v>
-      </c>
-      <c r="W210" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U211" s="6">
-        <v>672</v>
-      </c>
-      <c r="V211" s="6" t="s">
-        <v>855</v>
-      </c>
-      <c r="W211" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U212" s="6">
-        <v>674</v>
-      </c>
-      <c r="V212" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="W212" s="27">
-        <f>SUM(W213:W214)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U213" s="22">
-        <v>6741</v>
-      </c>
-      <c r="V213" s="22" t="s">
-        <v>857</v>
-      </c>
-      <c r="W213" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U214" s="22">
-        <v>6742</v>
-      </c>
-      <c r="V214" s="22" t="s">
-        <v>858</v>
-      </c>
-      <c r="W214" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U215" s="6">
-        <v>675</v>
-      </c>
-      <c r="V215" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="W215" s="27">
-        <f>SUM(W216:W219)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U216" s="22">
-        <v>6751</v>
-      </c>
-      <c r="V216" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="W216" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U217" s="22">
-        <v>6752</v>
-      </c>
-      <c r="V217" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="W217" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U218" s="22">
-        <v>6756</v>
-      </c>
-      <c r="V218" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="W218" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U219" s="22">
-        <v>6758</v>
-      </c>
-      <c r="V219" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="W219" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U220" s="6">
-        <v>678</v>
-      </c>
-      <c r="V220" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="W220" s="27">
-        <f>SUM(W221:W224)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U221" s="22">
-        <v>6781</v>
-      </c>
-      <c r="V221" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="W221" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U222" s="22">
-        <v>6782</v>
-      </c>
-      <c r="V222" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="W222" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U223" s="22">
-        <v>6783</v>
-      </c>
-      <c r="V223" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="W223" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U224" s="22">
-        <v>6788</v>
-      </c>
-      <c r="V224" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="W224" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U225" s="9">
-        <v>68</v>
-      </c>
-      <c r="V225" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="W225" s="26">
-        <f>SUM(W226,W238,W245)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U226" s="39">
-        <v>681</v>
-      </c>
-      <c r="V226" s="39" t="s">
-        <v>943</v>
-      </c>
-      <c r="W226" s="40">
-        <f>SUM(W227,W230:W232,W235)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U227" s="8">
-        <v>6811</v>
-      </c>
-      <c r="V227" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="W227" s="32">
-        <f>SUM(W228:W229)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U228" s="23">
-        <v>68111</v>
-      </c>
-      <c r="V228" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="W228" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U229" s="23">
-        <v>68112</v>
-      </c>
-      <c r="V229" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="W229" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U230" s="8">
-        <v>6812</v>
-      </c>
-      <c r="V230" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="W230" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U231" s="8">
-        <v>6815</v>
-      </c>
-      <c r="V231" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="W231" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U232" s="8">
-        <v>6816</v>
-      </c>
-      <c r="V232" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="W232" s="32">
-        <f>SUM(W233:W234)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U233" s="23">
-        <v>68161</v>
-      </c>
-      <c r="V233" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="W233" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U234" s="23">
-        <v>68162</v>
-      </c>
-      <c r="V234" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="W234" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U235" s="8">
-        <v>6817</v>
-      </c>
-      <c r="V235" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="W235" s="32">
-        <f>SUM(W236:W237)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U236" s="7">
-        <v>68173</v>
-      </c>
-      <c r="V236" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="W236" s="38">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U237" s="7">
-        <v>68174</v>
-      </c>
-      <c r="V237" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="W237" s="38">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U238" s="39">
-        <v>686</v>
-      </c>
-      <c r="V238" s="39" t="s">
-        <v>944</v>
-      </c>
-      <c r="W238" s="40">
-        <f>SUM(W239:W241,W244)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U239" s="8">
-        <v>6861</v>
-      </c>
-      <c r="V239" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="W239" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U240" s="8">
-        <v>6865</v>
-      </c>
-      <c r="V240" s="8" t="s">
-        <v>860</v>
-      </c>
-      <c r="W240" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U241" s="8">
-        <v>6866</v>
-      </c>
-      <c r="V241" s="8" t="s">
-        <v>861</v>
-      </c>
-      <c r="W241" s="32">
-        <f>SUM(W242:W243)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U242" s="23">
-        <v>68662</v>
-      </c>
-      <c r="V242" s="23" t="s">
-        <v>504</v>
-      </c>
-      <c r="W242" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U243" s="23">
-        <v>68665</v>
-      </c>
-      <c r="V243" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="W243" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U244" s="8">
-        <v>6868</v>
-      </c>
-      <c r="V244" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="W244" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U245" s="39">
-        <v>687</v>
-      </c>
-      <c r="V245" s="39" t="s">
-        <v>862</v>
-      </c>
-      <c r="W245" s="40">
-        <f>SUM(W246:W247,W249:W252)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U246" s="8">
-        <v>6871</v>
-      </c>
-      <c r="V246" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="W246" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U247" s="8">
-        <v>6872</v>
-      </c>
-      <c r="V247" s="8" t="s">
-        <v>945</v>
-      </c>
-      <c r="W247" s="32">
-        <f>SUM(W248)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U248" s="23">
-        <v>68725</v>
-      </c>
-      <c r="V248" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="W248" s="30">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U249" s="8">
-        <v>6873</v>
-      </c>
-      <c r="V249" s="8" t="s">
-        <v>946</v>
-      </c>
-      <c r="W249" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U250" s="8">
-        <v>6874</v>
-      </c>
-      <c r="V250" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="W250" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U251" s="8">
-        <v>6875</v>
-      </c>
-      <c r="V251" s="8" t="s">
-        <v>863</v>
-      </c>
-      <c r="W251" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U252" s="8">
-        <v>6876</v>
-      </c>
-      <c r="V252" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="W252" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U253" s="9">
-        <v>69</v>
-      </c>
-      <c r="V253" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="W253" s="26">
-        <f>SUM(W254:W255,W259:W260,W263)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U254" s="39">
-        <v>691</v>
-      </c>
-      <c r="V254" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="W254" s="40">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U255" s="39">
-        <v>695</v>
-      </c>
-      <c r="V255" s="39" t="s">
-        <v>498</v>
-      </c>
-      <c r="W255" s="40">
-        <f>SUM(W256:W258)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U256" s="22">
-        <v>6951</v>
-      </c>
-      <c r="V256" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="W256" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U257" s="22">
-        <v>6952</v>
-      </c>
-      <c r="V257" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="W257" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U258" s="22">
-        <v>6954</v>
-      </c>
-      <c r="V258" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="W258" s="28">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U259" s="6">
-        <v>696</v>
-      </c>
-      <c r="V259" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="W259" s="27">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U260" s="6">
-        <v>698</v>
-      </c>
-      <c r="V260" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="W260" s="27">
-        <f>SUM(W261:W262)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U261" s="8">
-        <v>6981</v>
-      </c>
-      <c r="V261" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="W261" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U262" s="8">
-        <v>6989</v>
-      </c>
-      <c r="V262" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="W262" s="32">
-        <f>0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="21:23" x14ac:dyDescent="0.25">
-      <c r="U263" s="39">
-        <v>699</v>
-      </c>
-      <c r="V263" s="39" t="s">
-        <v>490</v>
-      </c>
-      <c r="W263" s="40">
-        <f>0</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/France/3_Comptabilite_Et_Fiscalite/5_Plan_de_Comptes/Plan_De_Comptes.xlsx
+++ b/France/3_Comptabilite_Et_Fiscalite/5_Plan_de_Comptes/Plan_De_Comptes.xlsx
@@ -3553,9 +3553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4642,9 +4640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE263"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1335" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="AA303" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:AM324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15411,9 +15408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19114,8 +19109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" topLeftCell="AA20" workbookViewId="0">
+      <selection sqref="A1:AL39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
